--- a/Jogos_da_Semana_FlashScore_2025-04-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-20.xlsx
@@ -912,10 +912,10 @@
         <v>3.4</v>
       </c>
       <c r="N4" t="n">
-        <v>2.05</v>
+        <v>2.06</v>
       </c>
       <c r="O4" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="P4" t="n">
         <v>1.4</v>
@@ -1135,13 +1135,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="H6" t="n">
         <v>4.33</v>
       </c>
       <c r="I6" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J6" t="n">
         <v>1.05</v>
@@ -1156,10 +1156,10 @@
         <v>4</v>
       </c>
       <c r="N6" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="O6" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="P6" t="n">
         <v>1.36</v>
@@ -1183,7 +1183,7 @@
         <v>8.5</v>
       </c>
       <c r="W6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X6" t="n">
         <v>12</v>
@@ -1195,7 +1195,7 @@
         <v>11</v>
       </c>
       <c r="AA6" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB6" t="n">
         <v>19</v>
@@ -1867,13 +1867,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="H12" t="n">
         <v>3.1</v>
       </c>
       <c r="I12" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="J12" t="n">
         <v>1.08</v>
@@ -1894,10 +1894,10 @@
         <v>1.67</v>
       </c>
       <c r="P12" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R12" t="n">
         <v>1.91</v>
@@ -1939,7 +1939,7 @@
         <v>301</v>
       </c>
       <c r="AE12" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF12" t="n">
         <v>11</v>
@@ -1992,16 +1992,16 @@
         <v>2.6</v>
       </c>
       <c r="H13" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I13" t="n">
         <v>2.6</v>
       </c>
       <c r="J13" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L13" t="n">
         <v>1.2</v>
@@ -2058,7 +2058,7 @@
         <v>34</v>
       </c>
       <c r="AD13" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AE13" t="n">
         <v>12</v>
@@ -2120,13 +2120,13 @@
         <v>2.05</v>
       </c>
       <c r="J14" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K14" t="n">
         <v>15</v>
       </c>
       <c r="L14" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="M14" t="n">
         <v>4.5</v>
@@ -2236,19 +2236,19 @@
         <v>4.75</v>
       </c>
       <c r="H15" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I15" t="n">
         <v>1.8</v>
       </c>
       <c r="J15" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K15" t="n">
         <v>9</v>
       </c>
       <c r="L15" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M15" t="n">
         <v>3.4</v>
@@ -2302,7 +2302,7 @@
         <v>51</v>
       </c>
       <c r="AD15" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE15" t="n">
         <v>6.5</v>
@@ -2358,19 +2358,19 @@
         <v>1.7</v>
       </c>
       <c r="H16" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I16" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J16" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K16" t="n">
         <v>10</v>
       </c>
       <c r="L16" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M16" t="n">
         <v>3.75</v>
@@ -2412,7 +2412,7 @@
         <v>26</v>
       </c>
       <c r="Z16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA16" t="n">
         <v>7</v>
@@ -2433,7 +2433,7 @@
         <v>26</v>
       </c>
       <c r="AG16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH16" t="n">
         <v>51</v>
@@ -2483,19 +2483,19 @@
         <v>3.1</v>
       </c>
       <c r="I17" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J17" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="K17" t="n">
         <v>6.5</v>
       </c>
       <c r="L17" t="n">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="M17" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="N17" t="n">
         <v>2.63</v>
@@ -2558,7 +2558,7 @@
         <v>15</v>
       </c>
       <c r="AH17" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI17" t="n">
         <v>41</v>
@@ -2602,19 +2602,19 @@
         <v>1.67</v>
       </c>
       <c r="H18" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="I18" t="n">
         <v>5</v>
       </c>
       <c r="J18" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K18" t="n">
         <v>13</v>
       </c>
       <c r="L18" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="M18" t="n">
         <v>4.33</v>
@@ -2662,7 +2662,7 @@
         <v>7.5</v>
       </c>
       <c r="AB18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC18" t="n">
         <v>41</v>
@@ -2677,7 +2677,7 @@
         <v>26</v>
       </c>
       <c r="AG18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH18" t="n">
         <v>51</v>
@@ -2852,10 +2852,10 @@
         <v>3.6</v>
       </c>
       <c r="J20" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="K20" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="L20" t="n">
         <v>1.67</v>
@@ -2870,19 +2870,19 @@
         <v>1.36</v>
       </c>
       <c r="P20" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="R20" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="S20" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T20" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="U20" t="n">
         <v>9</v>
@@ -2906,7 +2906,7 @@
         <v>6</v>
       </c>
       <c r="AB20" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC20" t="n">
         <v>101</v>
@@ -2971,7 +2971,7 @@
         <v>2.75</v>
       </c>
       <c r="I21" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="J21" t="n">
         <v>1.17</v>
@@ -3028,7 +3028,7 @@
         <v>6</v>
       </c>
       <c r="AB21" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC21" t="n">
         <v>126</v>
@@ -3040,7 +3040,7 @@
         <v>5</v>
       </c>
       <c r="AF21" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AG21" t="n">
         <v>12</v>
@@ -3573,13 +3573,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="H26" t="n">
         <v>2.7</v>
       </c>
       <c r="I26" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="J26" t="n">
         <v>1.14</v>
@@ -3600,10 +3600,10 @@
         <v>1.4</v>
       </c>
       <c r="P26" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="R26" t="n">
         <v>2.25</v>
@@ -3615,7 +3615,7 @@
         <v>6</v>
       </c>
       <c r="U26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V26" t="n">
         <v>11</v>
@@ -3648,7 +3648,7 @@
         <v>7</v>
       </c>
       <c r="AF26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG26" t="n">
         <v>13</v>
@@ -4427,13 +4427,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="H33" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I33" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="J33" t="n">
         <v>1.03</v>
@@ -4460,10 +4460,10 @@
         <v>3.5</v>
       </c>
       <c r="R33" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S33" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T33" t="n">
         <v>17</v>
@@ -4472,13 +4472,13 @@
         <v>29</v>
       </c>
       <c r="V33" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="W33" t="n">
         <v>51</v>
       </c>
       <c r="X33" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Y33" t="n">
         <v>34</v>
@@ -4508,7 +4508,7 @@
         <v>8.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI33" t="n">
         <v>12</v>
@@ -4671,13 +4671,13 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="H35" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I35" t="n">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="J35" t="n">
         <v>1.02</v>
@@ -4686,79 +4686,79 @@
         <v>19</v>
       </c>
       <c r="L35" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="M35" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="N35" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="O35" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="P35" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Q35" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="R35" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="S35" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T35" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="U35" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="V35" t="n">
         <v>9</v>
       </c>
       <c r="W35" t="n">
+        <v>15</v>
+      </c>
+      <c r="X35" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y35" t="n">
         <v>19</v>
       </c>
-      <c r="X35" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>17</v>
-      </c>
       <c r="Z35" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA35" t="n">
         <v>8</v>
       </c>
       <c r="AB35" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC35" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AD35" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AE35" t="n">
         <v>19</v>
       </c>
       <c r="AF35" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AG35" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH35" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI35" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AJ35" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36">
@@ -4793,31 +4793,31 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H36" t="n">
         <v>3.7</v>
       </c>
       <c r="I36" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="J36" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K36" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L36" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M36" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N36" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="O36" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="P36" t="n">
         <v>1.36</v>
@@ -4835,7 +4835,7 @@
         <v>8</v>
       </c>
       <c r="U36" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V36" t="n">
         <v>9</v>
@@ -4871,16 +4871,16 @@
         <v>17</v>
       </c>
       <c r="AG36" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH36" t="n">
         <v>34</v>
       </c>
       <c r="AI36" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ36" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37">
@@ -5668,10 +5668,10 @@
         <v>2.63</v>
       </c>
       <c r="N43" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="O43" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P43" t="n">
         <v>1.53</v>
@@ -5769,13 +5769,13 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H44" t="n">
         <v>3.2</v>
       </c>
       <c r="I44" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="J44" t="n">
         <v>1.08</v>
@@ -5790,10 +5790,10 @@
         <v>2.75</v>
       </c>
       <c r="N44" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O44" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="P44" t="n">
         <v>1.5</v>
@@ -5808,16 +5808,16 @@
         <v>1.73</v>
       </c>
       <c r="T44" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U44" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V44" t="n">
         <v>9.5</v>
       </c>
       <c r="W44" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X44" t="n">
         <v>19</v>
@@ -5829,13 +5829,13 @@
         <v>7.5</v>
       </c>
       <c r="AA44" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB44" t="n">
         <v>17</v>
       </c>
       <c r="AC44" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD44" t="n">
         <v>351</v>
@@ -5844,7 +5844,7 @@
         <v>9</v>
       </c>
       <c r="AF44" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG44" t="n">
         <v>13</v>
@@ -5906,16 +5906,16 @@
         <v>9</v>
       </c>
       <c r="L45" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M45" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N45" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O45" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P45" t="n">
         <v>1.5</v>
@@ -6034,10 +6034,10 @@
         <v>3</v>
       </c>
       <c r="N46" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O46" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P46" t="n">
         <v>1.5</v>
@@ -6135,46 +6135,46 @@
         </is>
       </c>
       <c r="G47" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H47" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I47" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K47" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="N47" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S47" t="n">
         <v>2.02</v>
       </c>
-      <c r="H47" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="I47" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K47" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="L47" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="M47" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="N47" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="O47" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="P47" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R47" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S47" t="n">
-        <v>2.12</v>
-      </c>
       <c r="T47" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="U47" t="n">
         <v>10.25</v>
@@ -6183,46 +6183,46 @@
         <v>8.25</v>
       </c>
       <c r="W47" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="X47" t="n">
         <v>15.5</v>
       </c>
       <c r="Y47" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Z47" t="n">
-        <v>7.7</v>
+        <v>7.1</v>
       </c>
       <c r="AA47" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="AB47" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC47" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AD47" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="AE47" t="n">
-        <v>11.75</v>
+        <v>10</v>
       </c>
       <c r="AF47" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AG47" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH47" t="n">
         <v>50</v>
       </c>
       <c r="AI47" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AJ47" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48">
@@ -6260,34 +6260,34 @@
         <v>3.1</v>
       </c>
       <c r="H48" t="n">
-        <v>2.8</v>
+        <v>2.87</v>
       </c>
       <c r="I48" t="n">
-        <v>2.52</v>
+        <v>2.45</v>
       </c>
       <c r="J48" t="n">
         <v>1.09</v>
       </c>
       <c r="K48" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="L48" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M48" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="N48" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O48" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="P48" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.67</v>
+        <v>2.72</v>
       </c>
       <c r="R48" t="n">
         <v>1.75</v>
@@ -6296,10 +6296,10 @@
         <v>1.98</v>
       </c>
       <c r="T48" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U48" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="V48" t="n">
         <v>10.5</v>
@@ -6308,16 +6308,16 @@
         <v>45</v>
       </c>
       <c r="X48" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Y48" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Z48" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="AA48" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="AB48" t="n">
         <v>12.5</v>
@@ -6329,16 +6329,16 @@
         <v>500</v>
       </c>
       <c r="AE48" t="n">
-        <v>7.6</v>
+        <v>7.3</v>
       </c>
       <c r="AF48" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AG48" t="n">
         <v>9.25</v>
       </c>
       <c r="AH48" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AI48" t="n">
         <v>21</v>
@@ -6760,16 +6760,16 @@
         <v>11</v>
       </c>
       <c r="L52" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M52" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N52" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="O52" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="P52" t="n">
         <v>1.4</v>
@@ -6867,19 +6867,19 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H53" t="n">
         <v>3.4</v>
       </c>
       <c r="I53" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J53" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K53" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L53" t="n">
         <v>1.36</v>
@@ -6909,13 +6909,13 @@
         <v>7.5</v>
       </c>
       <c r="U53" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V53" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W53" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X53" t="n">
         <v>23</v>
@@ -6924,7 +6924,7 @@
         <v>34</v>
       </c>
       <c r="Z53" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA53" t="n">
         <v>6.5</v>
@@ -6942,16 +6942,16 @@
         <v>7.5</v>
       </c>
       <c r="AF53" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG53" t="n">
         <v>10</v>
       </c>
       <c r="AH53" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI53" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ53" t="n">
         <v>34</v>
@@ -7007,10 +7007,10 @@
         <v>1.42</v>
       </c>
       <c r="M54" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="N54" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="O54" t="n">
         <v>1.62</v>
@@ -7019,16 +7019,16 @@
         <v>1.5</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="R54" t="n">
         <v>2.02</v>
       </c>
       <c r="S54" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="T54" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="U54" t="n">
         <v>8.5</v>
@@ -7040,7 +7040,7 @@
         <v>17</v>
       </c>
       <c r="X54" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Y54" t="n">
         <v>40</v>
@@ -7052,7 +7052,7 @@
         <v>6.9</v>
       </c>
       <c r="AB54" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AC54" t="n">
         <v>120</v>
@@ -7114,43 +7114,43 @@
         <v>2.2</v>
       </c>
       <c r="H55" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I55" t="n">
         <v>3.35</v>
       </c>
       <c r="J55" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="K55" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="L55" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M55" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="N55" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O55" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P55" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="R55" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S55" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T55" t="n">
         <v>6.4</v>
-      </c>
-      <c r="L55" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M55" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="N55" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="O55" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="P55" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R55" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S55" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="T55" t="n">
-        <v>6.2</v>
       </c>
       <c r="U55" t="n">
         <v>10.25</v>
@@ -7162,22 +7162,22 @@
         <v>23</v>
       </c>
       <c r="X55" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y55" t="n">
         <v>40</v>
       </c>
       <c r="Z55" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AA55" t="n">
         <v>6.4</v>
       </c>
       <c r="AB55" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AC55" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AD55" t="n">
         <v>1000</v>
@@ -7195,7 +7195,7 @@
         <v>50</v>
       </c>
       <c r="AI55" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AJ55" t="n">
         <v>50</v>
@@ -7486,22 +7486,22 @@
         <v>5</v>
       </c>
       <c r="J58" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K58" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L58" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M58" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N58" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="O58" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="P58" t="n">
         <v>1.4</v>
@@ -7599,10 +7599,10 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H59" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I59" t="n">
         <v>3.1</v>
@@ -7614,37 +7614,37 @@
         <v>13</v>
       </c>
       <c r="L59" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M59" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N59" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="O59" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="P59" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q59" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R59" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S59" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T59" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="U59" t="n">
         <v>12</v>
       </c>
       <c r="V59" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W59" t="n">
         <v>21</v>
@@ -7656,7 +7656,7 @@
         <v>23</v>
       </c>
       <c r="Z59" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA59" t="n">
         <v>6.5</v>
@@ -7668,10 +7668,10 @@
         <v>41</v>
       </c>
       <c r="AD59" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AE59" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF59" t="n">
         <v>17</v>
@@ -7742,7 +7742,7 @@
         <v>4.33</v>
       </c>
       <c r="N60" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="O60" t="n">
         <v>2.1</v>
@@ -7864,7 +7864,7 @@
         <v>5</v>
       </c>
       <c r="N61" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="O61" t="n">
         <v>2.4</v>
@@ -7965,13 +7965,13 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="H62" t="n">
         <v>3.7</v>
       </c>
       <c r="I62" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J62" t="n">
         <v>1.03</v>
@@ -7986,16 +7986,16 @@
         <v>4.5</v>
       </c>
       <c r="N62" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="O62" t="n">
         <v>2.2</v>
       </c>
       <c r="P62" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q62" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R62" t="n">
         <v>1.62</v>
@@ -8022,7 +8022,7 @@
         <v>21</v>
       </c>
       <c r="Z62" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA62" t="n">
         <v>7</v>
@@ -8043,7 +8043,7 @@
         <v>23</v>
       </c>
       <c r="AG62" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH62" t="n">
         <v>41</v>
@@ -8111,7 +8111,7 @@
         <v>2.5</v>
       </c>
       <c r="O63" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P63" t="n">
         <v>1.53</v>
@@ -8352,10 +8352,10 @@
         <v>2.5</v>
       </c>
       <c r="N65" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O65" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="P65" t="n">
         <v>1.57</v>
@@ -8581,7 +8581,7 @@
         <v>5.1</v>
       </c>
       <c r="I67" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
@@ -8609,13 +8609,13 @@
         <v>6.1</v>
       </c>
       <c r="U67" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="V67" t="n">
         <v>9.5</v>
       </c>
       <c r="W67" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="X67" t="n">
         <v>12</v>
@@ -8645,10 +8645,10 @@
         <v>75</v>
       </c>
       <c r="AG67" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AH67" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AI67" t="n">
         <v>175</v>
@@ -8689,13 +8689,13 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="H68" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I68" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
@@ -8703,7 +8703,7 @@
         <v>1.34</v>
       </c>
       <c r="M68" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="N68" t="n">
         <v>2</v>
@@ -8715,7 +8715,7 @@
         <v>1.45</v>
       </c>
       <c r="Q68" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="R68" t="n">
         <v>1.82</v>
@@ -8724,22 +8724,22 @@
         <v>1.78</v>
       </c>
       <c r="T68" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="U68" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="V68" t="n">
         <v>8.5</v>
       </c>
       <c r="W68" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="X68" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Y68" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z68" t="n">
         <v>8.5</v>
@@ -8757,13 +8757,13 @@
         <v>700</v>
       </c>
       <c r="AE68" t="n">
-        <v>9.5</v>
+        <v>10.25</v>
       </c>
       <c r="AF68" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG68" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH68" t="n">
         <v>55</v>
@@ -8810,7 +8810,7 @@
         <v>1.55</v>
       </c>
       <c r="H69" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I69" t="n">
         <v>5.6</v>
@@ -8845,28 +8845,28 @@
         <v>6.4</v>
       </c>
       <c r="U69" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="V69" t="n">
         <v>8</v>
       </c>
       <c r="W69" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="X69" t="n">
         <v>12.5</v>
       </c>
       <c r="Y69" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Z69" t="n">
         <v>9.75</v>
       </c>
       <c r="AA69" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AB69" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AC69" t="n">
         <v>90</v>
@@ -8875,13 +8875,13 @@
         <v>800</v>
       </c>
       <c r="AE69" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AF69" t="n">
         <v>35</v>
       </c>
       <c r="AG69" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AH69" t="n">
         <v>120</v>
@@ -9047,13 +9047,13 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="H71" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I71" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="J71" t="n">
         <v>1.04</v>
@@ -9068,10 +9068,10 @@
         <v>3.75</v>
       </c>
       <c r="N71" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O71" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="P71" t="n">
         <v>1.36</v>
@@ -9107,7 +9107,7 @@
         <v>12</v>
       </c>
       <c r="AA71" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB71" t="n">
         <v>19</v>
@@ -9116,7 +9116,7 @@
         <v>51</v>
       </c>
       <c r="AD71" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE71" t="n">
         <v>17</v>
@@ -9291,13 +9291,13 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.67</v>
+        <v>1.9</v>
       </c>
       <c r="H73" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I73" t="n">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="J73" t="n">
         <v>1.05</v>
@@ -9324,25 +9324,25 @@
         <v>2.75</v>
       </c>
       <c r="R73" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S73" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="T73" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U73" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="V73" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W73" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="X73" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y73" t="n">
         <v>26</v>
@@ -9351,34 +9351,34 @@
         <v>11</v>
       </c>
       <c r="AA73" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB73" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC73" t="n">
         <v>51</v>
       </c>
       <c r="AD73" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE73" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF73" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG73" t="n">
         <v>12</v>
       </c>
-      <c r="AF73" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG73" t="n">
-        <v>15</v>
-      </c>
       <c r="AH73" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI73" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ73" t="n">
         <v>34</v>
-      </c>
-      <c r="AJ73" t="n">
-        <v>41</v>
       </c>
     </row>
     <row r="74">
@@ -9672,16 +9672,16 @@
         <v>11</v>
       </c>
       <c r="L76" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M76" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N76" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="O76" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="P76" t="n">
         <v>1.4</v>
@@ -10023,7 +10023,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="H79" t="n">
         <v>4.1</v>
@@ -10032,10 +10032,10 @@
         <v>6</v>
       </c>
       <c r="J79" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K79" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L79" t="n">
         <v>1.25</v>
@@ -10044,10 +10044,10 @@
         <v>3.75</v>
       </c>
       <c r="N79" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="O79" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="P79" t="n">
         <v>1.36</v>
@@ -10145,7 +10145,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H80" t="n">
         <v>3.1</v>
@@ -10267,13 +10267,13 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="H81" t="n">
         <v>3.5</v>
       </c>
       <c r="I81" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J81" t="n">
         <v>1.04</v>
@@ -10306,19 +10306,19 @@
         <v>2.2</v>
       </c>
       <c r="T81" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U81" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V81" t="n">
         <v>9</v>
       </c>
       <c r="W81" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X81" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y81" t="n">
         <v>23</v>
@@ -10330,7 +10330,7 @@
         <v>7</v>
       </c>
       <c r="AB81" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC81" t="n">
         <v>41</v>
@@ -10342,7 +10342,7 @@
         <v>12</v>
       </c>
       <c r="AF81" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG81" t="n">
         <v>12</v>
@@ -10351,7 +10351,7 @@
         <v>34</v>
       </c>
       <c r="AI81" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ81" t="n">
         <v>29</v>
@@ -10404,16 +10404,16 @@
         <v>15</v>
       </c>
       <c r="L82" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="M82" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N82" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="O82" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="P82" t="n">
         <v>1.33</v>
@@ -10511,13 +10511,13 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H83" t="n">
         <v>3.4</v>
       </c>
       <c r="I83" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J83" t="n">
         <v>1.04</v>
@@ -10538,10 +10538,10 @@
         <v>2.15</v>
       </c>
       <c r="P83" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q83" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="R83" t="n">
         <v>1.53</v>
@@ -10550,13 +10550,13 @@
         <v>2.38</v>
       </c>
       <c r="T83" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U83" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V83" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W83" t="n">
         <v>21</v>
@@ -10568,10 +10568,10 @@
         <v>21</v>
       </c>
       <c r="Z83" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA83" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB83" t="n">
         <v>11</v>
@@ -10595,7 +10595,7 @@
         <v>34</v>
       </c>
       <c r="AI83" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ83" t="n">
         <v>26</v>
@@ -10633,13 +10633,13 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="H84" t="n">
         <v>4.75</v>
       </c>
       <c r="I84" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J84" t="n">
         <v>1.03</v>
@@ -10672,7 +10672,7 @@
         <v>2</v>
       </c>
       <c r="T84" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U84" t="n">
         <v>8</v>
@@ -10690,10 +10690,10 @@
         <v>21</v>
       </c>
       <c r="Z84" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA84" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB84" t="n">
         <v>17</v>
@@ -10705,7 +10705,7 @@
         <v>201</v>
       </c>
       <c r="AE84" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF84" t="n">
         <v>41</v>
@@ -11008,10 +11008,10 @@
         <v>2.15</v>
       </c>
       <c r="J87" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K87" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L87" t="n">
         <v>1.2</v>
@@ -11121,13 +11121,13 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H88" t="n">
         <v>3.1</v>
       </c>
       <c r="I88" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J88" t="n">
         <v>1.05</v>
@@ -11136,16 +11136,16 @@
         <v>11</v>
       </c>
       <c r="L88" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M88" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N88" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="O88" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="P88" t="n">
         <v>1.36</v>
@@ -11160,13 +11160,13 @@
         <v>2.2</v>
       </c>
       <c r="T88" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U88" t="n">
         <v>13</v>
       </c>
       <c r="V88" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W88" t="n">
         <v>23</v>
@@ -11184,7 +11184,7 @@
         <v>6</v>
       </c>
       <c r="AB88" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC88" t="n">
         <v>41</v>
@@ -11196,7 +11196,7 @@
         <v>11</v>
       </c>
       <c r="AF88" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG88" t="n">
         <v>11</v>
@@ -11205,7 +11205,7 @@
         <v>29</v>
       </c>
       <c r="AI88" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ88" t="n">
         <v>29</v>
@@ -11264,10 +11264,10 @@
         <v>4</v>
       </c>
       <c r="N89" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O89" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P89" t="n">
         <v>1.36</v>
@@ -11380,16 +11380,16 @@
         <v>19</v>
       </c>
       <c r="L90" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="M90" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N90" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="O90" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="P90" t="n">
         <v>1.25</v>
@@ -11988,10 +11988,10 @@
         <v>2.63</v>
       </c>
       <c r="N95" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="O95" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P95" t="n">
         <v>1.53</v>
@@ -12220,10 +12220,10 @@
         <v>3.25</v>
       </c>
       <c r="J97" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K97" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L97" t="n">
         <v>1.5</v>
@@ -12714,10 +12714,10 @@
         <v>7.5</v>
       </c>
       <c r="L101" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M101" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N101" t="n">
         <v>2.35</v>
@@ -12732,10 +12732,10 @@
         <v>2.38</v>
       </c>
       <c r="R101" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S101" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T101" t="n">
         <v>7.5</v>
@@ -12842,10 +12842,10 @@
         <v>3.75</v>
       </c>
       <c r="N102" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="O102" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="P102" t="n">
         <v>1.4</v>
@@ -13568,16 +13568,16 @@
         <v>7</v>
       </c>
       <c r="L108" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="M108" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="N108" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="O108" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P108" t="n">
         <v>1.57</v>
@@ -13797,13 +13797,13 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="H110" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="I110" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
@@ -13817,42 +13817,42 @@
         <v>1.52</v>
       </c>
       <c r="O110" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="P110" t="inlineStr"/>
       <c r="Q110" t="inlineStr"/>
       <c r="R110" t="n">
-        <v>2.37</v>
+        <v>2.3</v>
       </c>
       <c r="S110" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="T110" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="U110" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="V110" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="W110" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="X110" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="Y110" t="n">
         <v>120</v>
       </c>
       <c r="Z110" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AA110" t="n">
-        <v>11</v>
+        <v>10.25</v>
       </c>
       <c r="AB110" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC110" t="n">
         <v>110</v>
@@ -13861,22 +13861,22 @@
         <v>600</v>
       </c>
       <c r="AE110" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="AF110" t="n">
         <v>4.9</v>
       </c>
       <c r="AG110" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AH110" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AI110" t="n">
         <v>9.25</v>
       </c>
       <c r="AJ110" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="111">
@@ -13914,24 +13914,24 @@
         <v>1.62</v>
       </c>
       <c r="H111" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I111" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="M111" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="N111" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O111" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="P111" t="n">
         <v>1.4</v>
@@ -13940,16 +13940,16 @@
         <v>2.4</v>
       </c>
       <c r="R111" t="n">
-        <v>2.2</v>
+        <v>2.11</v>
       </c>
       <c r="S111" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="T111" t="n">
-        <v>4.7</v>
+        <v>4.85</v>
       </c>
       <c r="U111" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="V111" t="n">
         <v>7.1</v>
@@ -13961,13 +13961,13 @@
         <v>12</v>
       </c>
       <c r="Y111" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z111" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="AA111" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AB111" t="n">
         <v>15.5</v>
@@ -13979,16 +13979,16 @@
         <v>450</v>
       </c>
       <c r="AE111" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AF111" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG111" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH111" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AI111" t="n">
         <v>45</v>
@@ -14029,13 +14029,13 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="H112" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I112" t="n">
-        <v>2.25</v>
+        <v>2.07</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
@@ -14046,10 +14046,10 @@
         <v>3.3</v>
       </c>
       <c r="N112" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="O112" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="P112" t="n">
         <v>1.39</v>
@@ -14058,34 +14058,34 @@
         <v>2.45</v>
       </c>
       <c r="R112" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="S112" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="T112" t="n">
-        <v>7.7</v>
+        <v>8.25</v>
       </c>
       <c r="U112" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="V112" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="W112" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="X112" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Y112" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Z112" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AA112" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AB112" t="n">
         <v>11.25</v>
@@ -14097,22 +14097,22 @@
         <v>300</v>
       </c>
       <c r="AE112" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AF112" t="n">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="AG112" t="n">
-        <v>7.6</v>
+        <v>7.3</v>
       </c>
       <c r="AH112" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AI112" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AJ112" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="113">
@@ -14401,25 +14401,25 @@
         <v>3.3</v>
       </c>
       <c r="I117" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J117" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K117" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L117" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M117" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N117" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O117" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="P117" t="n">
         <v>1.44</v>
@@ -14428,31 +14428,31 @@
         <v>2.63</v>
       </c>
       <c r="R117" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S117" t="n">
         <v>1.8</v>
       </c>
-      <c r="S117" t="n">
-        <v>1.95</v>
-      </c>
       <c r="T117" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U117" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="V117" t="n">
         <v>9</v>
-      </c>
-      <c r="V117" t="n">
-        <v>8.5</v>
       </c>
       <c r="W117" t="n">
         <v>17</v>
       </c>
       <c r="X117" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y117" t="n">
         <v>29</v>
       </c>
       <c r="Z117" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AA117" t="n">
         <v>6.5</v>
@@ -14464,7 +14464,7 @@
         <v>51</v>
       </c>
       <c r="AD117" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE117" t="n">
         <v>11</v>
@@ -14517,19 +14517,19 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H118" t="n">
         <v>3.1</v>
       </c>
       <c r="I118" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="J118" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K118" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L118" t="n">
         <v>1.3</v>
@@ -14550,10 +14550,10 @@
         <v>2.63</v>
       </c>
       <c r="R118" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S118" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T118" t="n">
         <v>10</v>
@@ -14568,13 +14568,13 @@
         <v>34</v>
       </c>
       <c r="X118" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y118" t="n">
         <v>34</v>
       </c>
       <c r="Z118" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA118" t="n">
         <v>6</v>
@@ -14583,13 +14583,13 @@
         <v>13</v>
       </c>
       <c r="AC118" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD118" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE118" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF118" t="n">
         <v>11</v>
@@ -14761,13 +14761,13 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="H120" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I120" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="J120" t="n">
         <v>1.03</v>
@@ -14782,22 +14782,22 @@
         <v>4.33</v>
       </c>
       <c r="N120" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="O120" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="P120" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q120" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="R120" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S120" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T120" t="n">
         <v>15</v>
@@ -14812,7 +14812,7 @@
         <v>41</v>
       </c>
       <c r="X120" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y120" t="n">
         <v>34</v>
@@ -14824,7 +14824,7 @@
         <v>7.5</v>
       </c>
       <c r="AB120" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC120" t="n">
         <v>41</v>
@@ -14833,7 +14833,7 @@
         <v>151</v>
       </c>
       <c r="AE120" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF120" t="n">
         <v>9.5</v>
@@ -15014,10 +15014,10 @@
         <v>5</v>
       </c>
       <c r="J122" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K122" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L122" t="n">
         <v>1.25</v>
@@ -15032,7 +15032,7 @@
         <v>2</v>
       </c>
       <c r="P122" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q122" t="n">
         <v>3</v>
@@ -15068,7 +15068,7 @@
         <v>7.5</v>
       </c>
       <c r="AB122" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC122" t="n">
         <v>51</v>
@@ -15615,19 +15615,19 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="H127" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I127" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J127" t="n">
         <v>1.04</v>
       </c>
       <c r="K127" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L127" t="n">
         <v>1.22</v>
@@ -15657,16 +15657,16 @@
         <v>7.5</v>
       </c>
       <c r="U127" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V127" t="n">
         <v>8.5</v>
       </c>
       <c r="W127" t="n">
+        <v>11</v>
+      </c>
+      <c r="X127" t="n">
         <v>12</v>
-      </c>
-      <c r="X127" t="n">
-        <v>13</v>
       </c>
       <c r="Y127" t="n">
         <v>23</v>
@@ -15675,16 +15675,16 @@
         <v>12</v>
       </c>
       <c r="AA127" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB127" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC127" t="n">
         <v>51</v>
       </c>
       <c r="AD127" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE127" t="n">
         <v>15</v>
@@ -16225,10 +16225,10 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="H132" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I132" t="n">
         <v>3.8</v>
@@ -16243,7 +16243,7 @@
         <v>1.26</v>
       </c>
       <c r="M132" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="N132" t="n">
         <v>1.78</v>
@@ -16264,22 +16264,22 @@
         <v>2.12</v>
       </c>
       <c r="T132" t="n">
-        <v>7.8</v>
+        <v>8.25</v>
       </c>
       <c r="U132" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="V132" t="n">
         <v>8.75</v>
       </c>
       <c r="W132" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="X132" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y132" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z132" t="n">
         <v>8.25</v>
@@ -16297,22 +16297,22 @@
         <v>400</v>
       </c>
       <c r="AE132" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AF132" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG132" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH132" t="n">
         <v>65</v>
       </c>
       <c r="AI132" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AJ132" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="133">
@@ -16347,31 +16347,31 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="H133" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="I133" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J133" t="n">
         <v>1.03</v>
       </c>
       <c r="K133" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="L133" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="M133" t="n">
-        <v>4.4</v>
+        <v>4.55</v>
       </c>
       <c r="N133" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="O133" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="P133" t="n">
         <v>1.3</v>
@@ -16380,49 +16380,49 @@
         <v>3.35</v>
       </c>
       <c r="R133" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="S133" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="T133" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="U133" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="V133" t="n">
         <v>9</v>
       </c>
       <c r="W133" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="X133" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y133" t="n">
         <v>21</v>
       </c>
       <c r="Z133" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AA133" t="n">
         <v>8.25</v>
       </c>
       <c r="AB133" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC133" t="n">
         <v>45</v>
       </c>
       <c r="AD133" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AE133" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AF133" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG133" t="n">
         <v>13</v>
@@ -16431,10 +16431,10 @@
         <v>55</v>
       </c>
       <c r="AI133" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AJ133" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="134">
@@ -16469,13 +16469,13 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="H134" t="n">
         <v>3.2</v>
       </c>
       <c r="I134" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J134" t="n">
         <v>1.07</v>
@@ -16541,7 +16541,7 @@
         <v>301</v>
       </c>
       <c r="AE134" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF134" t="n">
         <v>12</v>
@@ -16728,10 +16728,10 @@
         <v>9</v>
       </c>
       <c r="L136" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M136" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N136" t="n">
         <v>2.2</v>
@@ -16835,13 +16835,13 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H137" t="n">
         <v>3.25</v>
       </c>
       <c r="I137" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J137" t="n">
         <v>1.06</v>
@@ -16850,22 +16850,22 @@
         <v>10</v>
       </c>
       <c r="L137" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M137" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N137" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="O137" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="P137" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q137" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R137" t="n">
         <v>1.8</v>
@@ -16874,7 +16874,7 @@
         <v>1.91</v>
       </c>
       <c r="T137" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U137" t="n">
         <v>12</v>
@@ -16892,7 +16892,7 @@
         <v>29</v>
       </c>
       <c r="Z137" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA137" t="n">
         <v>6.5</v>
@@ -17079,19 +17079,19 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="H139" t="n">
         <v>4.2</v>
       </c>
       <c r="I139" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="J139" t="n">
         <v>1.08</v>
       </c>
       <c r="K139" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L139" t="n">
         <v>1.4</v>
@@ -17118,13 +17118,13 @@
         <v>1.44</v>
       </c>
       <c r="T139" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="U139" t="n">
         <v>41</v>
       </c>
       <c r="V139" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="W139" t="n">
         <v>101</v>
@@ -17133,10 +17133,10 @@
         <v>67</v>
       </c>
       <c r="Y139" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="Z139" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA139" t="n">
         <v>8.5</v>
@@ -17160,7 +17160,7 @@
         <v>9.5</v>
       </c>
       <c r="AH139" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI139" t="n">
         <v>15</v>
@@ -17201,19 +17201,19 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H140" t="n">
         <v>3.1</v>
       </c>
       <c r="I140" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J140" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K140" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L140" t="n">
         <v>1.4</v>
@@ -17240,7 +17240,7 @@
         <v>1.8</v>
       </c>
       <c r="T140" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U140" t="n">
         <v>10</v>
@@ -17252,7 +17252,7 @@
         <v>21</v>
       </c>
       <c r="X140" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y140" t="n">
         <v>34</v>
@@ -17264,7 +17264,7 @@
         <v>6</v>
       </c>
       <c r="AB140" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC140" t="n">
         <v>51</v>
@@ -17276,7 +17276,7 @@
         <v>9</v>
       </c>
       <c r="AF140" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG140" t="n">
         <v>12</v>
@@ -17698,10 +17698,10 @@
         <v>2.63</v>
       </c>
       <c r="J144" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="K144" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L144" t="n">
         <v>1.4</v>
@@ -17758,7 +17758,7 @@
         <v>51</v>
       </c>
       <c r="AD144" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AE144" t="n">
         <v>8</v>
@@ -18124,7 +18124,7 @@
         <v>51</v>
       </c>
       <c r="AD147" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AE147" t="n">
         <v>12</v>
@@ -18490,7 +18490,7 @@
         <v>67</v>
       </c>
       <c r="AD150" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AE150" t="n">
         <v>9.5</v>
@@ -18665,13 +18665,13 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="H152" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="I152" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J152" t="n">
         <v>1.1</v>
@@ -18707,7 +18707,7 @@
         <v>6.5</v>
       </c>
       <c r="U152" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V152" t="n">
         <v>11</v>
@@ -18725,7 +18725,7 @@
         <v>6.5</v>
       </c>
       <c r="AA152" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AB152" t="n">
         <v>17</v>
@@ -19159,7 +19159,7 @@
         <v>3.25</v>
       </c>
       <c r="I156" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J156" t="n">
         <v>1.05</v>
@@ -19174,10 +19174,10 @@
         <v>3.5</v>
       </c>
       <c r="N156" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="O156" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="P156" t="n">
         <v>1.4</v>
@@ -19186,43 +19186,43 @@
         <v>2.75</v>
       </c>
       <c r="R156" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S156" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T156" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U156" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V156" t="n">
         <v>9</v>
       </c>
       <c r="W156" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X156" t="n">
         <v>17</v>
       </c>
       <c r="Y156" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z156" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA156" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB156" t="n">
         <v>13</v>
       </c>
       <c r="AC156" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD156" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE156" t="n">
         <v>10</v>
@@ -19234,10 +19234,10 @@
         <v>12</v>
       </c>
       <c r="AH156" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI156" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ156" t="n">
         <v>34</v>
@@ -19763,49 +19763,49 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="H161" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I161" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="J161" t="n">
         <v>1.04</v>
       </c>
       <c r="K161" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="L161" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M161" t="n">
-        <v>3.8</v>
+        <v>4.05</v>
       </c>
       <c r="N161" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="O161" t="n">
-        <v>2.05</v>
+        <v>2.18</v>
       </c>
       <c r="P161" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="Q161" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="R161" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="S161" t="n">
-        <v>2.3</v>
+        <v>2.37</v>
       </c>
       <c r="T161" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="U161" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="V161" t="n">
         <v>9.25</v>
@@ -19814,31 +19814,31 @@
         <v>26</v>
       </c>
       <c r="X161" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y161" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Z161" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AA161" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AB161" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AC161" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AD161" t="n">
         <v>250</v>
       </c>
       <c r="AE161" t="n">
-        <v>11</v>
+        <v>11.75</v>
       </c>
       <c r="AF161" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AG161" t="n">
         <v>9.75</v>
@@ -19847,10 +19847,10 @@
         <v>32</v>
       </c>
       <c r="AI161" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AJ161" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="162">
@@ -19885,10 +19885,10 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>2.77</v>
+        <v>2.72</v>
       </c>
       <c r="H162" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I162" t="n">
         <v>2.55</v>
@@ -19897,13 +19897,13 @@
         <v>1.04</v>
       </c>
       <c r="K162" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="L162" t="n">
         <v>1.17</v>
       </c>
       <c r="M162" t="n">
-        <v>4.45</v>
+        <v>4.5</v>
       </c>
       <c r="N162" t="n">
         <v>1.52</v>
@@ -19912,58 +19912,58 @@
         <v>2.37</v>
       </c>
       <c r="P162" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="Q162" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="R162" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S162" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="T162" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="U162" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="V162" t="n">
         <v>9.75</v>
       </c>
       <c r="W162" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="X162" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Y162" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Z162" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AA162" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AB162" t="n">
         <v>9.25</v>
       </c>
       <c r="AC162" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AD162" t="n">
         <v>120</v>
       </c>
       <c r="AE162" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AF162" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AG162" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AH162" t="n">
         <v>35</v>
@@ -19972,7 +19972,7 @@
         <v>18</v>
       </c>
       <c r="AJ162" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="163">
@@ -20016,10 +20016,10 @@
         <v>4.75</v>
       </c>
       <c r="J163" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K163" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L163" t="n">
         <v>1.25</v>
@@ -20028,10 +20028,10 @@
         <v>3.75</v>
       </c>
       <c r="N163" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="O163" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="P163" t="n">
         <v>1.36</v>
@@ -20251,10 +20251,10 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="H165" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="I165" t="n">
         <v>13</v>
@@ -20284,10 +20284,10 @@
         <v>4.33</v>
       </c>
       <c r="R165" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S165" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T165" t="n">
         <v>10</v>
@@ -20314,22 +20314,22 @@
         <v>17</v>
       </c>
       <c r="AB165" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC165" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD165" t="n">
         <v>351</v>
       </c>
       <c r="AE165" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AF165" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG165" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AH165" t="n">
         <v>151</v>
@@ -20338,7 +20338,7 @@
         <v>81</v>
       </c>
       <c r="AJ165" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="166">
@@ -20373,90 +20373,90 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>2.15</v>
+        <v>1.91</v>
       </c>
       <c r="H166" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I166" t="n">
-        <v>3.2</v>
+        <v>3.85</v>
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M166" t="n">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
       <c r="N166" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="O166" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="P166" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="Q166" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="R166" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="S166" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="T166" t="n">
-        <v>7.1</v>
+        <v>6.5</v>
       </c>
       <c r="U166" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="V166" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="W166" t="n">
-        <v>21</v>
+        <v>16.5</v>
       </c>
       <c r="X166" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="Y166" t="n">
         <v>30</v>
       </c>
       <c r="Z166" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA166" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AB166" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AC166" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AD166" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="AE166" t="n">
-        <v>9.5</v>
+        <v>10.25</v>
       </c>
       <c r="AF166" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AG166" t="n">
-        <v>11.25</v>
+        <v>13</v>
       </c>
       <c r="AH166" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI166" t="n">
+        <v>37</v>
+      </c>
+      <c r="AJ166" t="n">
         <v>45</v>
-      </c>
-      <c r="AI166" t="n">
-        <v>28</v>
-      </c>
-      <c r="AJ166" t="n">
-        <v>35</v>
       </c>
     </row>
     <row r="167">
@@ -20491,90 +20491,90 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>4.35</v>
+        <v>4.1</v>
       </c>
       <c r="H167" t="n">
         <v>3.3</v>
       </c>
       <c r="I167" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="M167" t="n">
-        <v>2.67</v>
+        <v>2.45</v>
       </c>
       <c r="N167" t="n">
-        <v>2.05</v>
+        <v>2.22</v>
       </c>
       <c r="O167" t="n">
-        <v>1.62</v>
+        <v>1.52</v>
       </c>
       <c r="P167" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Q167" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="R167" t="n">
-        <v>1.91</v>
+        <v>2.07</v>
       </c>
       <c r="S167" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="T167" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="U167" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V167" t="n">
         <v>15</v>
       </c>
       <c r="W167" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="X167" t="n">
         <v>50</v>
       </c>
       <c r="Y167" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="Z167" t="n">
-        <v>8</v>
+        <v>7.3</v>
       </c>
       <c r="AA167" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AB167" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AC167" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AD167" t="n">
         <v>900</v>
       </c>
       <c r="AE167" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AF167" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AG167" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="AH167" t="n">
         <v>14.5</v>
       </c>
       <c r="AI167" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AJ167" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="168">
@@ -20609,90 +20609,90 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>2.02</v>
+        <v>1.7</v>
       </c>
       <c r="H168" t="n">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="I168" t="n">
-        <v>3.65</v>
+        <v>4.8</v>
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="M168" t="n">
-        <v>2.52</v>
+        <v>2.72</v>
       </c>
       <c r="N168" t="n">
-        <v>2.15</v>
+        <v>2.02</v>
       </c>
       <c r="O168" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="P168" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="Q168" t="n">
-        <v>2.27</v>
+        <v>2.4</v>
       </c>
       <c r="R168" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="S168" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="T168" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="U168" t="n">
-        <v>8.75</v>
+        <v>7.1</v>
       </c>
       <c r="V168" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W168" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="X168" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y168" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z168" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA168" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AB168" t="n">
         <v>18</v>
-      </c>
-      <c r="X168" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="Y168" t="n">
-        <v>35</v>
-      </c>
-      <c r="Z168" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AA168" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AB168" t="n">
-        <v>17</v>
       </c>
       <c r="AC168" t="n">
         <v>100</v>
       </c>
       <c r="AD168" t="n">
-        <v>101</v>
+        <v>1000</v>
       </c>
       <c r="AE168" t="n">
-        <v>8.75</v>
+        <v>11.5</v>
       </c>
       <c r="AF168" t="n">
-        <v>18.5</v>
+        <v>26</v>
       </c>
       <c r="AG168" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AH168" t="n">
+        <v>90</v>
+      </c>
+      <c r="AI168" t="n">
         <v>55</v>
       </c>
-      <c r="AI168" t="n">
-        <v>40</v>
-      </c>
       <c r="AJ168" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="169">
@@ -20971,13 +20971,13 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="H171" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I171" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J171" t="n">
         <v>1.06</v>
@@ -21010,7 +21010,7 @@
         <v>1.8</v>
       </c>
       <c r="T171" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U171" t="n">
         <v>7</v>
@@ -21132,10 +21132,10 @@
         <v>1.65</v>
       </c>
       <c r="T172" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="U172" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="V172" t="n">
         <v>11.25</v>
@@ -21165,10 +21165,10 @@
         <v>101</v>
       </c>
       <c r="AE172" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AF172" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AG172" t="n">
         <v>10</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-20.xlsx
@@ -656,22 +656,22 @@
         <v>2.5</v>
       </c>
       <c r="J2" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K2" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L2" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M2" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N2" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="O2" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="P2" t="n">
         <v>1.36</v>
@@ -781,7 +781,7 @@
         <v>1.04</v>
       </c>
       <c r="K3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L3" t="n">
         <v>1.22</v>
@@ -820,7 +820,7 @@
         <v>101</v>
       </c>
       <c r="X3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="Y3" t="n">
         <v>51</v>
@@ -838,10 +838,10 @@
         <v>67</v>
       </c>
       <c r="AD3" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AE3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF3" t="n">
         <v>7.5</v>
@@ -906,28 +906,28 @@
         <v>10</v>
       </c>
       <c r="L4" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M4" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N4" t="n">
-        <v>2.06</v>
+        <v>2.01</v>
       </c>
       <c r="O4" t="n">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="P4" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R4" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S4" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T4" t="n">
         <v>9</v>
@@ -954,7 +954,7 @@
         <v>7</v>
       </c>
       <c r="AB4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC4" t="n">
         <v>51</v>
@@ -1025,19 +1025,19 @@
         <v>1.02</v>
       </c>
       <c r="K5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L5" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="M5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="N5" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="O5" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="P5" t="n">
         <v>1.22</v>
@@ -1052,7 +1052,7 @@
         <v>1.8</v>
       </c>
       <c r="T5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="U5" t="n">
         <v>67</v>
@@ -1070,7 +1070,7 @@
         <v>67</v>
       </c>
       <c r="Z5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA5" t="n">
         <v>15</v>
@@ -1082,22 +1082,22 @@
         <v>67</v>
       </c>
       <c r="AD5" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AE5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AG5" t="n">
         <v>11</v>
       </c>
       <c r="AH5" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ5" t="n">
         <v>29</v>
@@ -1156,10 +1156,10 @@
         <v>4</v>
       </c>
       <c r="N6" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="O6" t="n">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="P6" t="n">
         <v>1.36</v>
@@ -1278,10 +1278,10 @@
         <v>3.75</v>
       </c>
       <c r="N7" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="O7" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="P7" t="n">
         <v>1.4</v>
@@ -1522,10 +1522,10 @@
         <v>3.5</v>
       </c>
       <c r="N9" t="n">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="O9" t="n">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="P9" t="n">
         <v>1.44</v>
@@ -1766,10 +1766,10 @@
         <v>3.75</v>
       </c>
       <c r="N11" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="O11" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="P11" t="n">
         <v>1.4</v>
@@ -1867,13 +1867,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="H12" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="I12" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="J12" t="n">
         <v>1.01</v>
@@ -1882,16 +1882,16 @@
         <v>23</v>
       </c>
       <c r="L12" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="M12" t="n">
         <v>7</v>
       </c>
       <c r="N12" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="O12" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P12" t="n">
         <v>1.2</v>
@@ -1906,7 +1906,7 @@
         <v>2.38</v>
       </c>
       <c r="T12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U12" t="n">
         <v>10</v>
@@ -1915,13 +1915,13 @@
         <v>9</v>
       </c>
       <c r="W12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X12" t="n">
         <v>10</v>
       </c>
       <c r="Y12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Z12" t="n">
         <v>26</v>
@@ -1998,7 +1998,7 @@
         <v>1.67</v>
       </c>
       <c r="J13" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K13" t="n">
         <v>10</v>
@@ -2007,13 +2007,13 @@
         <v>1.3</v>
       </c>
       <c r="M13" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N13" t="n">
-        <v>2.04</v>
+        <v>2.07</v>
       </c>
       <c r="O13" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="P13" t="n">
         <v>1.4</v>
@@ -2120,16 +2120,16 @@
         <v>3.6</v>
       </c>
       <c r="J14" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="K14" t="n">
         <v>7</v>
       </c>
       <c r="L14" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M14" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="N14" t="n">
         <v>2.3</v>
@@ -2242,13 +2242,13 @@
         <v>2.35</v>
       </c>
       <c r="J15" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="K15" t="n">
         <v>8</v>
       </c>
       <c r="L15" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M15" t="n">
         <v>3.2</v>
@@ -2364,13 +2364,13 @@
         <v>2.6</v>
       </c>
       <c r="J16" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K16" t="n">
         <v>13</v>
       </c>
       <c r="L16" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="M16" t="n">
         <v>4.5</v>
@@ -2483,25 +2483,25 @@
         <v>3.6</v>
       </c>
       <c r="I17" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K17" t="n">
         <v>15</v>
       </c>
       <c r="L17" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="M17" t="n">
         <v>4.5</v>
       </c>
       <c r="N17" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="O17" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="P17" t="n">
         <v>1.3</v>
@@ -2510,13 +2510,13 @@
         <v>3.4</v>
       </c>
       <c r="R17" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S17" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="T17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="U17" t="n">
         <v>21</v>
@@ -2528,7 +2528,7 @@
         <v>41</v>
       </c>
       <c r="X17" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y17" t="n">
         <v>29</v>
@@ -2543,7 +2543,7 @@
         <v>12</v>
       </c>
       <c r="AC17" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD17" t="n">
         <v>126</v>
@@ -2552,7 +2552,7 @@
         <v>10</v>
       </c>
       <c r="AF17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG17" t="n">
         <v>9</v>
@@ -2730,10 +2730,10 @@
         <v>5</v>
       </c>
       <c r="J19" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L19" t="n">
         <v>1.29</v>
@@ -2858,10 +2858,10 @@
         <v>6.5</v>
       </c>
       <c r="L20" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="M20" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="N20" t="n">
         <v>2.63</v>
@@ -2894,7 +2894,7 @@
         <v>17</v>
       </c>
       <c r="X20" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y20" t="n">
         <v>41</v>
@@ -2906,7 +2906,7 @@
         <v>6</v>
       </c>
       <c r="AB20" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC20" t="n">
         <v>81</v>
@@ -2918,7 +2918,7 @@
         <v>9</v>
       </c>
       <c r="AF20" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG20" t="n">
         <v>15</v>
@@ -2965,13 +2965,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H21" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I21" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J21" t="n">
         <v>1.04</v>
@@ -2998,22 +2998,22 @@
         <v>3.25</v>
       </c>
       <c r="R21" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="S21" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T21" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U21" t="n">
         <v>8</v>
-      </c>
-      <c r="U21" t="n">
-        <v>8.5</v>
       </c>
       <c r="V21" t="n">
         <v>8.5</v>
       </c>
       <c r="W21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X21" t="n">
         <v>13</v>
@@ -3031,16 +3031,16 @@
         <v>15</v>
       </c>
       <c r="AC21" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD21" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE21" t="n">
         <v>15</v>
       </c>
       <c r="AF21" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG21" t="n">
         <v>17</v>
@@ -3099,7 +3099,7 @@
         <v>1.17</v>
       </c>
       <c r="K22" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="L22" t="n">
         <v>1.73</v>
@@ -3114,16 +3114,16 @@
         <v>1.3</v>
       </c>
       <c r="P22" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="Q22" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R22" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="S22" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T22" t="n">
         <v>6</v>
@@ -3218,10 +3218,10 @@
         <v>3.6</v>
       </c>
       <c r="J23" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="K23" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="L23" t="n">
         <v>1.67</v>
@@ -3331,19 +3331,19 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H24" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="I24" t="n">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="J24" t="n">
         <v>1.17</v>
       </c>
       <c r="K24" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="L24" t="n">
         <v>1.73</v>
@@ -3358,10 +3358,10 @@
         <v>1.3</v>
       </c>
       <c r="P24" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R24" t="n">
         <v>2.63</v>
@@ -3397,7 +3397,7 @@
         <v>23</v>
       </c>
       <c r="AC24" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AD24" t="n">
         <v>101</v>
@@ -3406,13 +3406,13 @@
         <v>5</v>
       </c>
       <c r="AF24" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AG24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH24" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI24" t="n">
         <v>29</v>
@@ -3828,10 +3828,10 @@
         <v>3.75</v>
       </c>
       <c r="J28" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="K28" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="L28" t="n">
         <v>1.57</v>
@@ -4061,13 +4061,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I30" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J30" t="n">
         <v>1.14</v>
@@ -4094,16 +4094,16 @@
         <v>2</v>
       </c>
       <c r="R30" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="S30" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T30" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U30" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V30" t="n">
         <v>15</v>
@@ -4427,13 +4427,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I33" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="J33" t="n">
         <v>1.14</v>
@@ -4454,34 +4454,34 @@
         <v>1.36</v>
       </c>
       <c r="P33" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="Q33" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="R33" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="S33" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T33" t="n">
         <v>5</v>
       </c>
       <c r="U33" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V33" t="n">
         <v>11</v>
       </c>
       <c r="W33" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X33" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y33" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="Z33" t="n">
         <v>5.5</v>
@@ -4490,7 +4490,7 @@
         <v>6.5</v>
       </c>
       <c r="AB33" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC33" t="n">
         <v>101</v>
@@ -4499,16 +4499,16 @@
         <v>101</v>
       </c>
       <c r="AE33" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AF33" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AG33" t="n">
         <v>15</v>
       </c>
       <c r="AH33" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI33" t="n">
         <v>41</v>
@@ -4561,7 +4561,7 @@
         <v>1.01</v>
       </c>
       <c r="K34" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L34" t="n">
         <v>1.08</v>
@@ -4627,7 +4627,7 @@
         <v>34</v>
       </c>
       <c r="AG34" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH34" t="n">
         <v>51</v>
@@ -4674,16 +4674,16 @@
         <v>2.9</v>
       </c>
       <c r="H35" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I35" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J35" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K35" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L35" t="n">
         <v>1.17</v>
@@ -4692,10 +4692,10 @@
         <v>5</v>
       </c>
       <c r="N35" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="O35" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="P35" t="n">
         <v>1.29</v>
@@ -4728,7 +4728,7 @@
         <v>23</v>
       </c>
       <c r="Z35" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA35" t="n">
         <v>7.5</v>
@@ -4746,16 +4746,16 @@
         <v>12</v>
       </c>
       <c r="AF35" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG35" t="n">
         <v>9.5</v>
       </c>
       <c r="AH35" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI35" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ35" t="n">
         <v>21</v>
@@ -5043,7 +5043,7 @@
         <v>4.33</v>
       </c>
       <c r="I38" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="J38" t="n">
         <v>1.03</v>
@@ -5076,7 +5076,7 @@
         <v>2.1</v>
       </c>
       <c r="T38" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="U38" t="n">
         <v>29</v>
@@ -5112,7 +5112,7 @@
         <v>9</v>
       </c>
       <c r="AF38" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AG38" t="n">
         <v>8.5</v>
@@ -5281,13 +5281,13 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="H40" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="I40" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J40" t="n">
         <v>1.02</v>
@@ -5302,10 +5302,10 @@
         <v>6</v>
       </c>
       <c r="N40" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="O40" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="P40" t="n">
         <v>1.25</v>
@@ -5323,13 +5323,13 @@
         <v>11</v>
       </c>
       <c r="U40" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V40" t="n">
         <v>8.5</v>
       </c>
       <c r="W40" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X40" t="n">
         <v>12</v>
@@ -5341,7 +5341,7 @@
         <v>19</v>
       </c>
       <c r="AA40" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB40" t="n">
         <v>12</v>
@@ -5353,13 +5353,13 @@
         <v>101</v>
       </c>
       <c r="AE40" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF40" t="n">
         <v>29</v>
       </c>
       <c r="AG40" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH40" t="n">
         <v>51</v>
@@ -5368,7 +5368,7 @@
         <v>34</v>
       </c>
       <c r="AJ40" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41">
@@ -5647,7 +5647,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H43" t="n">
         <v>3.4</v>
@@ -5662,22 +5662,22 @@
         <v>8</v>
       </c>
       <c r="L43" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="N43" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P43" t="n">
         <v>1.5</v>
       </c>
-      <c r="M43" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="N43" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="O43" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P43" t="n">
-        <v>1.53</v>
-      </c>
       <c r="Q43" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R43" t="n">
         <v>2.05</v>
@@ -5686,25 +5686,25 @@
         <v>1.7</v>
       </c>
       <c r="T43" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U43" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V43" t="n">
         <v>9.5</v>
       </c>
       <c r="W43" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X43" t="n">
         <v>21</v>
       </c>
       <c r="Y43" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z43" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA43" t="n">
         <v>6.5</v>
@@ -5731,7 +5731,7 @@
         <v>41</v>
       </c>
       <c r="AI43" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ43" t="n">
         <v>41</v>
@@ -6260,10 +6260,10 @@
         <v>1.9</v>
       </c>
       <c r="H48" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I48" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J48" t="n">
         <v>1.1</v>
@@ -6272,37 +6272,37 @@
         <v>7</v>
       </c>
       <c r="L48" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M48" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="N48" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O48" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="P48" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="R48" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S48" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T48" t="n">
         <v>5.5</v>
       </c>
       <c r="U48" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V48" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W48" t="n">
         <v>15</v>
@@ -6311,31 +6311,31 @@
         <v>19</v>
       </c>
       <c r="Y48" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z48" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA48" t="n">
         <v>6.5</v>
       </c>
       <c r="AB48" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC48" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD48" t="n">
         <v>101</v>
       </c>
       <c r="AE48" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF48" t="n">
         <v>21</v>
       </c>
       <c r="AG48" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH48" t="n">
         <v>51</v>
@@ -6379,19 +6379,19 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H49" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I49" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="J49" t="n">
         <v>1.08</v>
       </c>
       <c r="K49" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L49" t="n">
         <v>1.4</v>
@@ -6421,7 +6421,7 @@
         <v>6.5</v>
       </c>
       <c r="U49" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V49" t="n">
         <v>9</v>
@@ -6430,13 +6430,13 @@
         <v>17</v>
       </c>
       <c r="X49" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y49" t="n">
         <v>34</v>
       </c>
       <c r="Z49" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA49" t="n">
         <v>6.5</v>
@@ -6445,19 +6445,19 @@
         <v>17</v>
       </c>
       <c r="AC49" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD49" t="n">
         <v>351</v>
       </c>
       <c r="AE49" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF49" t="n">
         <v>19</v>
       </c>
       <c r="AG49" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH49" t="n">
         <v>41</v>
@@ -6745,82 +6745,82 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H52" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="I52" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="J52" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="K52" t="n">
-        <v>7.1</v>
+        <v>6.4</v>
       </c>
       <c r="L52" t="n">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="M52" t="n">
-        <v>3.2</v>
+        <v>2.82</v>
       </c>
       <c r="N52" t="n">
-        <v>1.88</v>
+        <v>2.1</v>
       </c>
       <c r="O52" t="n">
-        <v>1.82</v>
+        <v>1.65</v>
       </c>
       <c r="P52" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.8</v>
+        <v>2.65</v>
       </c>
       <c r="R52" t="n">
-        <v>1.72</v>
+        <v>1.85</v>
       </c>
       <c r="S52" t="n">
-        <v>2.02</v>
+        <v>1.85</v>
       </c>
       <c r="T52" t="n">
-        <v>7.8</v>
+        <v>6.8</v>
       </c>
       <c r="U52" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="V52" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="W52" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="X52" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y52" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Z52" t="n">
-        <v>7.1</v>
+        <v>6.4</v>
       </c>
       <c r="AA52" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="AB52" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AC52" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AD52" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="AE52" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF52" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AG52" t="n">
         <v>12</v>
@@ -6829,10 +6829,10 @@
         <v>50</v>
       </c>
       <c r="AI52" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AJ52" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53">
@@ -6867,94 +6867,94 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="H53" t="n">
-        <v>2.77</v>
+        <v>2.65</v>
       </c>
       <c r="I53" t="n">
-        <v>2.32</v>
+        <v>2.37</v>
       </c>
       <c r="J53" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="K53" t="n">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="L53" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M53" t="n">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="N53" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="O53" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P53" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="Q53" t="n">
-        <v>2.67</v>
+        <v>2.5</v>
       </c>
       <c r="R53" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S53" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T53" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U53" t="n">
         <v>19</v>
       </c>
       <c r="V53" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="W53" t="n">
         <v>55</v>
       </c>
       <c r="X53" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Y53" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Z53" t="n">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="AA53" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="AB53" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC53" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AD53" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AE53" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="AF53" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AG53" t="n">
         <v>8.75</v>
       </c>
       <c r="AH53" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI53" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AJ53" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54">
@@ -7111,13 +7111,13 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="H55" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I55" t="n">
-        <v>4.15</v>
+        <v>4.05</v>
       </c>
       <c r="J55" t="n">
         <v>1.09</v>
@@ -7132,7 +7132,7 @@
         <v>2.67</v>
       </c>
       <c r="N55" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="O55" t="n">
         <v>1.6</v>
@@ -7141,7 +7141,7 @@
         <v>1.47</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="R55" t="n">
         <v>1.98</v>
@@ -7159,13 +7159,13 @@
         <v>8.5</v>
       </c>
       <c r="W55" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="X55" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Y55" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Z55" t="n">
         <v>6.1</v>
@@ -7183,22 +7183,22 @@
         <v>1000</v>
       </c>
       <c r="AE55" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AF55" t="n">
         <v>21</v>
       </c>
       <c r="AG55" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH55" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AI55" t="n">
         <v>45</v>
       </c>
       <c r="AJ55" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56">
@@ -7242,10 +7242,10 @@
         <v>3.6</v>
       </c>
       <c r="J56" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K56" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L56" t="n">
         <v>1.36</v>
@@ -7358,7 +7358,7 @@
         <v>2.25</v>
       </c>
       <c r="H57" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I57" t="n">
         <v>3</v>
@@ -7388,10 +7388,10 @@
         <v>3</v>
       </c>
       <c r="R57" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S57" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T57" t="n">
         <v>9</v>
@@ -7409,10 +7409,10 @@
         <v>17</v>
       </c>
       <c r="Y57" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z57" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA57" t="n">
         <v>6.5</v>
@@ -7486,10 +7486,10 @@
         <v>2.45</v>
       </c>
       <c r="J58" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K58" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L58" t="n">
         <v>1.36</v>
@@ -7599,70 +7599,70 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.93</v>
+        <v>1.75</v>
       </c>
       <c r="H59" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I59" t="n">
-        <v>3.9</v>
+        <v>4.45</v>
       </c>
       <c r="J59" t="n">
         <v>1.08</v>
       </c>
       <c r="K59" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="L59" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="M59" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="N59" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O59" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P59" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.47</v>
+        <v>2.55</v>
       </c>
       <c r="R59" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="S59" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="T59" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="U59" t="n">
-        <v>8.5</v>
+        <v>7.8</v>
       </c>
       <c r="V59" t="n">
         <v>9.25</v>
       </c>
       <c r="W59" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="X59" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y59" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Z59" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AA59" t="n">
-        <v>6.9</v>
+        <v>7.3</v>
       </c>
       <c r="AB59" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AC59" t="n">
         <v>120</v>
@@ -7671,22 +7671,22 @@
         <v>101</v>
       </c>
       <c r="AE59" t="n">
-        <v>9.25</v>
+        <v>10.25</v>
       </c>
       <c r="AF59" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AG59" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="AH59" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AI59" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AJ59" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60">
@@ -7733,7 +7733,7 @@
         <v>1.09</v>
       </c>
       <c r="K60" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="L60" t="n">
         <v>1.4</v>
@@ -7748,7 +7748,7 @@
         <v>1.62</v>
       </c>
       <c r="P60" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="Q60" t="n">
         <v>2.45</v>
@@ -7760,25 +7760,25 @@
         <v>1.8</v>
       </c>
       <c r="T60" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="U60" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="V60" t="n">
         <v>9.75</v>
       </c>
       <c r="W60" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="X60" t="n">
         <v>21</v>
       </c>
       <c r="Y60" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Z60" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AA60" t="n">
         <v>6.5</v>
@@ -7790,22 +7790,22 @@
         <v>100</v>
       </c>
       <c r="AD60" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AE60" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AF60" t="n">
         <v>17.5</v>
       </c>
       <c r="AG60" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH60" t="n">
         <v>50</v>
       </c>
       <c r="AI60" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AJ60" t="n">
         <v>50</v>
@@ -8209,19 +8209,19 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H64" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I64" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J64" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K64" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L64" t="n">
         <v>1.29</v>
@@ -8230,10 +8230,10 @@
         <v>3.5</v>
       </c>
       <c r="N64" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O64" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="P64" t="n">
         <v>1.4</v>
@@ -8248,19 +8248,19 @@
         <v>2.05</v>
       </c>
       <c r="T64" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U64" t="n">
         <v>11</v>
       </c>
       <c r="V64" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W64" t="n">
         <v>21</v>
       </c>
       <c r="X64" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y64" t="n">
         <v>26</v>
@@ -8281,19 +8281,19 @@
         <v>201</v>
       </c>
       <c r="AE64" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF64" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG64" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH64" t="n">
         <v>34</v>
       </c>
       <c r="AI64" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ64" t="n">
         <v>34</v>
@@ -8352,10 +8352,10 @@
         <v>4.33</v>
       </c>
       <c r="N65" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O65" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P65" t="n">
         <v>1.33</v>
@@ -8590,16 +8590,16 @@
         <v>15</v>
       </c>
       <c r="L67" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="M67" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N67" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="O67" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="P67" t="n">
         <v>1.3</v>
@@ -8718,10 +8718,10 @@
         <v>2.5</v>
       </c>
       <c r="N68" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O68" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="P68" t="n">
         <v>1.57</v>
@@ -8950,22 +8950,22 @@
         <v>3.2</v>
       </c>
       <c r="J70" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="K70" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="L70" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="M70" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="N70" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="O70" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="P70" t="n">
         <v>1.57</v>
@@ -9417,13 +9417,13 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H74" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="I74" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -9440,55 +9440,55 @@
         <v>1.78</v>
       </c>
       <c r="P74" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="Q74" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="R74" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S74" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="T74" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="U74" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="V74" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="W74" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="X74" t="n">
         <v>12.5</v>
       </c>
       <c r="Y74" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Z74" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AA74" t="n">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="AB74" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AC74" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AD74" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AE74" t="n">
         <v>14</v>
       </c>
       <c r="AF74" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AG74" t="n">
         <v>18.5</v>
@@ -9669,7 +9669,7 @@
         <v>1.04</v>
       </c>
       <c r="K76" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L76" t="n">
         <v>1.25</v>
@@ -10511,13 +10511,13 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="H83" t="n">
         <v>4.5</v>
       </c>
       <c r="I83" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="J83" t="n">
         <v>1.04</v>
@@ -10553,13 +10553,13 @@
         <v>6.5</v>
       </c>
       <c r="U83" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="V83" t="n">
         <v>8.5</v>
       </c>
       <c r="W83" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X83" t="n">
         <v>12</v>
@@ -10571,7 +10571,7 @@
         <v>12</v>
       </c>
       <c r="AA83" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB83" t="n">
         <v>21</v>
@@ -10633,13 +10633,13 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="H84" t="n">
         <v>3.7</v>
       </c>
       <c r="I84" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="J84" t="n">
         <v>1.04</v>
@@ -10675,13 +10675,13 @@
         <v>8.5</v>
       </c>
       <c r="U84" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V84" t="n">
         <v>9</v>
       </c>
       <c r="W84" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X84" t="n">
         <v>15</v>
@@ -10708,13 +10708,13 @@
         <v>12</v>
       </c>
       <c r="AF84" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG84" t="n">
         <v>12</v>
       </c>
       <c r="AH84" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI84" t="n">
         <v>26</v>
@@ -11142,10 +11142,10 @@
         <v>4</v>
       </c>
       <c r="N88" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="O88" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="P88" t="n">
         <v>1.33</v>
@@ -11243,13 +11243,13 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H89" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I89" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J89" t="n">
         <v>1.03</v>
@@ -11291,7 +11291,7 @@
         <v>8.5</v>
       </c>
       <c r="W89" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X89" t="n">
         <v>12</v>
@@ -11365,13 +11365,13 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H90" t="n">
         <v>3.4</v>
       </c>
       <c r="I90" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J90" t="n">
         <v>1.04</v>
@@ -11407,10 +11407,10 @@
         <v>10</v>
       </c>
       <c r="U90" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V90" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W90" t="n">
         <v>21</v>
@@ -11449,7 +11449,7 @@
         <v>34</v>
       </c>
       <c r="AI90" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ90" t="n">
         <v>26</v>
@@ -11502,10 +11502,10 @@
         <v>17</v>
       </c>
       <c r="L91" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="M91" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N91" t="n">
         <v>1.53</v>
@@ -11609,13 +11609,13 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H92" t="n">
         <v>3.3</v>
       </c>
       <c r="I92" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J92" t="n">
         <v>1.05</v>
@@ -11660,7 +11660,7 @@
         <v>34</v>
       </c>
       <c r="X92" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y92" t="n">
         <v>34</v>
@@ -11740,10 +11740,10 @@
         <v>2.7</v>
       </c>
       <c r="J93" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K93" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L93" t="n">
         <v>1.25</v>
@@ -11996,10 +11996,10 @@
         <v>3.75</v>
       </c>
       <c r="N95" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="O95" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="P95" t="n">
         <v>1.36</v>
@@ -12228,10 +12228,10 @@
         <v>10</v>
       </c>
       <c r="J97" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K97" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L97" t="n">
         <v>1.17</v>
@@ -12482,43 +12482,43 @@
         <v>1.78</v>
       </c>
       <c r="P99" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="Q99" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="R99" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="S99" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="T99" t="n">
         <v>6.8</v>
       </c>
       <c r="U99" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="V99" t="n">
         <v>8.25</v>
       </c>
       <c r="W99" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="X99" t="n">
         <v>13.5</v>
       </c>
       <c r="Y99" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Z99" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AA99" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AB99" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AC99" t="n">
         <v>80</v>
@@ -12530,13 +12530,13 @@
         <v>12</v>
       </c>
       <c r="AF99" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG99" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AH99" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AI99" t="n">
         <v>45</v>
@@ -12589,7 +12589,7 @@
         <v>1.02</v>
       </c>
       <c r="K100" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L100" t="n">
         <v>1.13</v>
@@ -12708,10 +12708,10 @@
         <v>1.95</v>
       </c>
       <c r="J101" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K101" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L101" t="n">
         <v>1.44</v>
@@ -12720,10 +12720,10 @@
         <v>2.63</v>
       </c>
       <c r="N101" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="O101" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P101" t="n">
         <v>1.53</v>
@@ -12827,7 +12827,7 @@
         <v>3.1</v>
       </c>
       <c r="I102" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="J102" t="n">
         <v>1.08</v>
@@ -12842,10 +12842,10 @@
         <v>2.63</v>
       </c>
       <c r="N102" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="O102" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P102" t="n">
         <v>1.53</v>
@@ -12878,7 +12878,7 @@
         <v>41</v>
       </c>
       <c r="Z102" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA102" t="n">
         <v>6</v>
@@ -12887,10 +12887,10 @@
         <v>17</v>
       </c>
       <c r="AC102" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD102" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AE102" t="n">
         <v>7</v>
@@ -13024,7 +13024,7 @@
         <v>11</v>
       </c>
       <c r="AH103" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI103" t="n">
         <v>26</v>
@@ -13080,16 +13080,16 @@
         <v>6.5</v>
       </c>
       <c r="L104" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="M104" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="N104" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="O104" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="P104" t="n">
         <v>1.57</v>
@@ -13309,13 +13309,13 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H106" t="n">
         <v>3.4</v>
       </c>
       <c r="I106" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="J106" t="n">
         <v>1.05</v>
@@ -13342,16 +13342,16 @@
         <v>2.75</v>
       </c>
       <c r="R106" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S106" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T106" t="n">
         <v>7.5</v>
       </c>
       <c r="U106" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V106" t="n">
         <v>8.5</v>
@@ -13372,16 +13372,16 @@
         <v>6.5</v>
       </c>
       <c r="AB106" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC106" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD106" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE106" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF106" t="n">
         <v>21</v>
@@ -13393,10 +13393,10 @@
         <v>41</v>
       </c>
       <c r="AI106" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ106" t="n">
         <v>34</v>
-      </c>
-      <c r="AJ106" t="n">
-        <v>41</v>
       </c>
     </row>
     <row r="107">
@@ -13565,7 +13565,7 @@
         <v>1.08</v>
       </c>
       <c r="K108" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L108" t="n">
         <v>1.44</v>
@@ -13675,13 +13675,13 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H109" t="n">
         <v>3.4</v>
       </c>
       <c r="I109" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J109" t="n">
         <v>1.05</v>
@@ -13690,28 +13690,28 @@
         <v>11</v>
       </c>
       <c r="L109" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M109" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N109" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="O109" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="P109" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q109" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R109" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S109" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T109" t="n">
         <v>8</v>
@@ -13720,16 +13720,16 @@
         <v>10</v>
       </c>
       <c r="V109" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W109" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X109" t="n">
         <v>15</v>
       </c>
       <c r="Y109" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z109" t="n">
         <v>11</v>
@@ -13753,7 +13753,7 @@
         <v>19</v>
       </c>
       <c r="AG109" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH109" t="n">
         <v>41</v>
@@ -13809,7 +13809,7 @@
         <v>1.07</v>
       </c>
       <c r="K110" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L110" t="n">
         <v>1.36</v>
@@ -14062,10 +14062,10 @@
         <v>3.25</v>
       </c>
       <c r="N112" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="O112" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="P112" t="n">
         <v>1.44</v>
@@ -14163,13 +14163,13 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="H113" t="n">
         <v>3.4</v>
       </c>
       <c r="I113" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="J113" t="n">
         <v>1.05</v>
@@ -14178,16 +14178,16 @@
         <v>11</v>
       </c>
       <c r="L113" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M113" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N113" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="O113" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="P113" t="n">
         <v>1.4</v>
@@ -14205,13 +14205,13 @@
         <v>7.5</v>
       </c>
       <c r="U113" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V113" t="n">
         <v>8.5</v>
       </c>
       <c r="W113" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X113" t="n">
         <v>15</v>
@@ -14235,22 +14235,22 @@
         <v>201</v>
       </c>
       <c r="AE113" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF113" t="n">
         <v>21</v>
       </c>
       <c r="AG113" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH113" t="n">
         <v>41</v>
       </c>
       <c r="AI113" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ113" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="114">
@@ -14407,19 +14407,19 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="H115" t="n">
         <v>3.1</v>
       </c>
       <c r="I115" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J115" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K115" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L115" t="n">
         <v>1.44</v>
@@ -14434,10 +14434,10 @@
         <v>1.53</v>
       </c>
       <c r="P115" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Q115" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="R115" t="n">
         <v>2.1</v>
@@ -14446,7 +14446,7 @@
         <v>1.67</v>
       </c>
       <c r="T115" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U115" t="n">
         <v>10</v>
@@ -14455,16 +14455,16 @@
         <v>10</v>
       </c>
       <c r="W115" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X115" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y115" t="n">
         <v>41</v>
       </c>
       <c r="Z115" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA115" t="n">
         <v>6</v>
@@ -14482,7 +14482,7 @@
         <v>7.5</v>
       </c>
       <c r="AF115" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG115" t="n">
         <v>12</v>
@@ -14550,10 +14550,10 @@
         <v>2.63</v>
       </c>
       <c r="N116" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O116" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P116" t="n">
         <v>1.53</v>
@@ -14651,10 +14651,10 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="H117" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="I117" t="n">
         <v>1.17</v>
@@ -14691,7 +14691,7 @@
         <v>37</v>
       </c>
       <c r="W117" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="X117" t="n">
         <v>175</v>
@@ -14700,10 +14700,10 @@
         <v>120</v>
       </c>
       <c r="Z117" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AA117" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AB117" t="n">
         <v>24</v>
@@ -14718,7 +14718,7 @@
         <v>6.1</v>
       </c>
       <c r="AF117" t="n">
-        <v>4.9</v>
+        <v>4.85</v>
       </c>
       <c r="AG117" t="n">
         <v>8.25</v>
@@ -14730,7 +14730,7 @@
         <v>9.25</v>
       </c>
       <c r="AJ117" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="118">
@@ -14883,7 +14883,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="H119" t="n">
         <v>3.2</v>
@@ -14918,22 +14918,22 @@
         <v>1.97</v>
       </c>
       <c r="T119" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="U119" t="n">
         <v>14</v>
       </c>
       <c r="V119" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="W119" t="n">
         <v>32</v>
       </c>
       <c r="X119" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y119" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z119" t="n">
         <v>9.5</v>
@@ -14951,10 +14951,10 @@
         <v>300</v>
       </c>
       <c r="AE119" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AF119" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AG119" t="n">
         <v>7.3</v>
@@ -15304,7 +15304,7 @@
         <v>2</v>
       </c>
       <c r="H124" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I124" t="n">
         <v>4.1</v>
@@ -15316,16 +15316,16 @@
         <v>9</v>
       </c>
       <c r="L124" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M124" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N124" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O124" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P124" t="n">
         <v>1.44</v>
@@ -15334,10 +15334,10 @@
         <v>2.63</v>
       </c>
       <c r="R124" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S124" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="T124" t="n">
         <v>6.5</v>
@@ -15358,7 +15358,7 @@
         <v>29</v>
       </c>
       <c r="Z124" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA124" t="n">
         <v>6</v>
@@ -15370,16 +15370,16 @@
         <v>51</v>
       </c>
       <c r="AD124" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE124" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF124" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG124" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH124" t="n">
         <v>41</v>
@@ -15911,13 +15911,13 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="H129" t="n">
         <v>3.9</v>
       </c>
       <c r="I129" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="J129" t="n">
         <v>1.05</v>
@@ -15932,10 +15932,10 @@
         <v>3.75</v>
       </c>
       <c r="N129" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="O129" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="P129" t="n">
         <v>1.36</v>
@@ -15944,16 +15944,16 @@
         <v>3</v>
       </c>
       <c r="R129" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="S129" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="T129" t="n">
         <v>7</v>
       </c>
       <c r="U129" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V129" t="n">
         <v>8.5</v>
@@ -15980,13 +15980,13 @@
         <v>51</v>
       </c>
       <c r="AD129" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE129" t="n">
         <v>15</v>
       </c>
       <c r="AF129" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG129" t="n">
         <v>17</v>
@@ -16155,7 +16155,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H131" t="n">
         <v>3.6</v>
@@ -16277,13 +16277,13 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="H132" t="n">
         <v>3.1</v>
       </c>
       <c r="I132" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="J132" t="n">
         <v>1.06</v>
@@ -16298,10 +16298,10 @@
         <v>3.5</v>
       </c>
       <c r="N132" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="O132" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="P132" t="n">
         <v>1.4</v>
@@ -16399,7 +16399,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="H133" t="n">
         <v>4.5</v>
@@ -16411,7 +16411,7 @@
         <v>1.04</v>
       </c>
       <c r="K133" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L133" t="n">
         <v>1.22</v>
@@ -16420,10 +16420,10 @@
         <v>4</v>
       </c>
       <c r="N133" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="O133" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="P133" t="n">
         <v>1.33</v>
@@ -16887,19 +16887,19 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H137" t="n">
         <v>3</v>
       </c>
       <c r="I137" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="J137" t="n">
         <v>1.08</v>
       </c>
       <c r="K137" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L137" t="n">
         <v>1.4</v>
@@ -16908,25 +16908,25 @@
         <v>2.75</v>
       </c>
       <c r="N137" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O137" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="P137" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q137" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R137" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S137" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="T137" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U137" t="n">
         <v>15</v>
@@ -16950,13 +16950,13 @@
         <v>6</v>
       </c>
       <c r="AB137" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC137" t="n">
         <v>51</v>
       </c>
       <c r="AD137" t="n">
-        <v>900</v>
+        <v>351</v>
       </c>
       <c r="AE137" t="n">
         <v>7</v>
@@ -17009,13 +17009,13 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H138" t="n">
         <v>3</v>
       </c>
       <c r="I138" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="J138" t="n">
         <v>1.1</v>
@@ -17024,34 +17024,34 @@
         <v>7</v>
       </c>
       <c r="L138" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M138" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="N138" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="O138" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="P138" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Q138" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="R138" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S138" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T138" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U138" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V138" t="n">
         <v>9.5</v>
@@ -17060,28 +17060,28 @@
         <v>17</v>
       </c>
       <c r="X138" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y138" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z138" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA138" t="n">
         <v>6</v>
       </c>
       <c r="AB138" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC138" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD138" t="n">
         <v>1000</v>
       </c>
       <c r="AE138" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF138" t="n">
         <v>19</v>
@@ -17096,7 +17096,7 @@
         <v>41</v>
       </c>
       <c r="AJ138" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="139">
@@ -17131,13 +17131,13 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="H139" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I139" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="J139" t="n">
         <v>1.06</v>
@@ -17155,7 +17155,7 @@
         <v>1.8</v>
       </c>
       <c r="O139" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="P139" t="n">
         <v>1.42</v>
@@ -17164,25 +17164,25 @@
         <v>2.75</v>
       </c>
       <c r="R139" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="S139" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T139" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="U139" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="V139" t="n">
         <v>8.75</v>
       </c>
       <c r="W139" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="X139" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y139" t="n">
         <v>26</v>
@@ -17191,34 +17191,34 @@
         <v>8</v>
       </c>
       <c r="AA139" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AB139" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC139" t="n">
+        <v>65</v>
+      </c>
+      <c r="AD139" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE139" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AF139" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG139" t="n">
         <v>14</v>
       </c>
-      <c r="AC139" t="n">
-        <v>60</v>
-      </c>
-      <c r="AD139" t="n">
-        <v>450</v>
-      </c>
-      <c r="AE139" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AF139" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG139" t="n">
-        <v>13</v>
-      </c>
       <c r="AH139" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AI139" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ139" t="n">
         <v>37</v>
-      </c>
-      <c r="AJ139" t="n">
-        <v>40</v>
       </c>
     </row>
     <row r="140">
@@ -17384,10 +17384,10 @@
         <v>2.45</v>
       </c>
       <c r="J141" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K141" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="L141" t="n">
         <v>1.33</v>
@@ -17396,10 +17396,10 @@
         <v>3.25</v>
       </c>
       <c r="N141" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="O141" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="P141" t="n">
         <v>1.44</v>
@@ -17497,13 +17497,13 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="H142" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I142" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J142" t="n">
         <v>1.05</v>
@@ -17518,10 +17518,10 @@
         <v>3.5</v>
       </c>
       <c r="N142" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="O142" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="P142" t="n">
         <v>1.4</v>
@@ -17530,16 +17530,16 @@
         <v>2.75</v>
       </c>
       <c r="R142" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S142" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="T142" t="n">
         <v>7</v>
       </c>
       <c r="U142" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V142" t="n">
         <v>8.5</v>
@@ -17548,7 +17548,7 @@
         <v>13</v>
       </c>
       <c r="X142" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y142" t="n">
         <v>26</v>
@@ -17560,7 +17560,7 @@
         <v>7</v>
       </c>
       <c r="AB142" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC142" t="n">
         <v>51</v>
@@ -17581,7 +17581,7 @@
         <v>51</v>
       </c>
       <c r="AI142" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ142" t="n">
         <v>41</v>
@@ -17619,13 +17619,13 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="H143" t="n">
         <v>3.4</v>
       </c>
       <c r="I143" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="J143" t="n">
         <v>1.07</v>
@@ -17634,10 +17634,10 @@
         <v>9</v>
       </c>
       <c r="L143" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M143" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N143" t="n">
         <v>2.2</v>
@@ -17667,7 +17667,7 @@
         <v>15</v>
       </c>
       <c r="W143" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="X143" t="n">
         <v>41</v>
@@ -17676,7 +17676,7 @@
         <v>41</v>
       </c>
       <c r="Z143" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA143" t="n">
         <v>7</v>
@@ -17694,7 +17694,7 @@
         <v>6</v>
       </c>
       <c r="AF143" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AG143" t="n">
         <v>9</v>
@@ -17884,10 +17884,10 @@
         <v>3</v>
       </c>
       <c r="N145" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O145" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="P145" t="n">
         <v>1.44</v>
@@ -18232,16 +18232,16 @@
         <v>1.6</v>
       </c>
       <c r="H148" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I148" t="n">
         <v>5.5</v>
       </c>
       <c r="J148" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K148" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L148" t="n">
         <v>1.3</v>
@@ -18250,16 +18250,16 @@
         <v>3.4</v>
       </c>
       <c r="N148" t="n">
-        <v>2.05</v>
+        <v>1.94</v>
       </c>
       <c r="O148" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="P148" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q148" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R148" t="n">
         <v>2</v>
@@ -18268,7 +18268,7 @@
         <v>1.73</v>
       </c>
       <c r="T148" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U148" t="n">
         <v>7</v>
@@ -18277,19 +18277,19 @@
         <v>8.5</v>
       </c>
       <c r="W148" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X148" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y148" t="n">
         <v>29</v>
       </c>
       <c r="Z148" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA148" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB148" t="n">
         <v>19</v>
@@ -18351,13 +18351,13 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H149" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I149" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J149" t="n">
         <v>1.07</v>
@@ -18372,10 +18372,10 @@
         <v>3</v>
       </c>
       <c r="N149" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O149" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="P149" t="n">
         <v>1.5</v>
@@ -18417,7 +18417,7 @@
         <v>17</v>
       </c>
       <c r="AC149" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD149" t="n">
         <v>351</v>
@@ -18426,10 +18426,10 @@
         <v>11</v>
       </c>
       <c r="AF149" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG149" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH149" t="n">
         <v>51</v>
@@ -18438,7 +18438,7 @@
         <v>41</v>
       </c>
       <c r="AJ149" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="150">
@@ -18604,10 +18604,10 @@
         <v>2.63</v>
       </c>
       <c r="J151" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="K151" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L151" t="n">
         <v>1.4</v>
@@ -18848,10 +18848,10 @@
         <v>2.3</v>
       </c>
       <c r="J153" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K153" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="L153" t="n">
         <v>1.4</v>
@@ -18872,13 +18872,13 @@
         <v>2.5</v>
       </c>
       <c r="R153" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S153" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="T153" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U153" t="n">
         <v>15</v>
@@ -18887,7 +18887,7 @@
         <v>12</v>
       </c>
       <c r="W153" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X153" t="n">
         <v>29</v>
@@ -18970,10 +18970,10 @@
         <v>4.5</v>
       </c>
       <c r="J154" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K154" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L154" t="n">
         <v>1.36</v>
@@ -19110,10 +19110,10 @@
         <v>1.5</v>
       </c>
       <c r="P155" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Q155" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="R155" t="n">
         <v>2.1</v>
@@ -19146,7 +19146,7 @@
         <v>6</v>
       </c>
       <c r="AB155" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC155" t="n">
         <v>67</v>
@@ -19155,13 +19155,13 @@
         <v>900</v>
       </c>
       <c r="AE155" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF155" t="n">
         <v>17</v>
       </c>
       <c r="AG155" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH155" t="n">
         <v>41</v>
@@ -19226,22 +19226,22 @@
         <v>3.75</v>
       </c>
       <c r="N156" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="O156" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="P156" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q156" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R156" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S156" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T156" t="n">
         <v>8.5</v>
@@ -19268,7 +19268,7 @@
         <v>6</v>
       </c>
       <c r="AB156" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC156" t="n">
         <v>41</v>
@@ -19280,7 +19280,7 @@
         <v>12</v>
       </c>
       <c r="AF156" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG156" t="n">
         <v>13</v>
@@ -19458,10 +19458,10 @@
         <v>4.75</v>
       </c>
       <c r="J158" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K158" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="L158" t="n">
         <v>1.36</v>
@@ -19470,10 +19470,10 @@
         <v>3</v>
       </c>
       <c r="N158" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O158" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P158" t="n">
         <v>1.5</v>
@@ -19702,10 +19702,10 @@
         <v>3.2</v>
       </c>
       <c r="J160" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K160" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="L160" t="n">
         <v>1.36</v>
@@ -19884,7 +19884,7 @@
         <v>67</v>
       </c>
       <c r="AD161" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AE161" t="n">
         <v>7</v>
@@ -20059,13 +20059,13 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H163" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I163" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J163" t="n">
         <v>1.05</v>
@@ -20080,10 +20080,10 @@
         <v>3.5</v>
       </c>
       <c r="N163" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="O163" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="P163" t="n">
         <v>1.4</v>
@@ -20101,13 +20101,13 @@
         <v>8</v>
       </c>
       <c r="U163" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V163" t="n">
         <v>9</v>
       </c>
       <c r="W163" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X163" t="n">
         <v>17</v>
@@ -20131,7 +20131,7 @@
         <v>201</v>
       </c>
       <c r="AE163" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF163" t="n">
         <v>17</v>
@@ -20303,13 +20303,13 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H165" t="n">
         <v>3.7</v>
       </c>
       <c r="I165" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J165" t="n">
         <v>1.03</v>
@@ -20375,7 +20375,7 @@
         <v>151</v>
       </c>
       <c r="AE165" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF165" t="n">
         <v>17</v>
@@ -20425,94 +20425,94 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>2.15</v>
+        <v>2.22</v>
       </c>
       <c r="H166" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I166" t="n">
-        <v>2.85</v>
+        <v>2.72</v>
       </c>
       <c r="J166" t="n">
         <v>1.03</v>
       </c>
       <c r="K166" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="L166" t="n">
         <v>1.14</v>
       </c>
       <c r="M166" t="n">
-        <v>4.9</v>
+        <v>4.85</v>
       </c>
       <c r="N166" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="O166" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="P166" t="n">
         <v>1.25</v>
       </c>
       <c r="Q166" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="R166" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="S166" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="T166" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="U166" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="V166" t="n">
         <v>9.25</v>
       </c>
       <c r="W166" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="X166" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y166" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Z166" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AA166" t="n">
         <v>8.25</v>
       </c>
       <c r="AB166" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AC166" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AD166" t="n">
         <v>150</v>
       </c>
       <c r="AE166" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AF166" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AG166" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="AH166" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AI166" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ166" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="167">
@@ -20794,37 +20794,37 @@
         <v>2.72</v>
       </c>
       <c r="H169" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I169" t="n">
-        <v>2.57</v>
+        <v>2.62</v>
       </c>
       <c r="J169" t="n">
         <v>1.04</v>
       </c>
       <c r="K169" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="L169" t="n">
         <v>1.17</v>
       </c>
       <c r="M169" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="N169" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="O169" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="P169" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="Q169" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="R169" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="S169" t="n">
         <v>2.8</v>
@@ -20839,7 +20839,7 @@
         <v>9.75</v>
       </c>
       <c r="W169" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="X169" t="n">
         <v>19.5</v>
@@ -20848,34 +20848,34 @@
         <v>19</v>
       </c>
       <c r="Z169" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AA169" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AB169" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AC169" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AD169" t="n">
         <v>120</v>
       </c>
       <c r="AE169" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AF169" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AG169" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AH169" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AI169" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AJ169" t="n">
         <v>18.5</v>
@@ -21050,16 +21050,16 @@
         <v>13</v>
       </c>
       <c r="L171" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M171" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N171" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="O171" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="P171" t="n">
         <v>1.36</v>
@@ -21178,10 +21178,10 @@
         <v>7</v>
       </c>
       <c r="N172" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="O172" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P172" t="n">
         <v>1.2</v>
@@ -21306,25 +21306,25 @@
         <v>2.08</v>
       </c>
       <c r="P173" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q173" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R173" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S173" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T173" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U173" t="n">
         <v>10</v>
       </c>
       <c r="V173" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W173" t="n">
         <v>17</v>
@@ -21336,7 +21336,7 @@
         <v>23</v>
       </c>
       <c r="Z173" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA173" t="n">
         <v>7</v>
@@ -21351,10 +21351,10 @@
         <v>151</v>
       </c>
       <c r="AE173" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF173" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG173" t="n">
         <v>13</v>
@@ -21363,7 +21363,7 @@
         <v>41</v>
       </c>
       <c r="AI173" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ173" t="n">
         <v>34</v>
@@ -21463,13 +21463,13 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>3.6</v>
+        <v>2.88</v>
       </c>
       <c r="H175" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I175" t="n">
-        <v>1.91</v>
+        <v>2.3</v>
       </c>
       <c r="J175" t="n">
         <v>1.05</v>
@@ -21478,16 +21478,16 @@
         <v>11</v>
       </c>
       <c r="L175" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M175" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N175" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="O175" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="P175" t="n">
         <v>1.4</v>
@@ -21496,58 +21496,58 @@
         <v>2.75</v>
       </c>
       <c r="R175" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="S175" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="T175" t="n">
+        <v>10</v>
+      </c>
+      <c r="U175" t="n">
+        <v>15</v>
+      </c>
+      <c r="V175" t="n">
         <v>11</v>
       </c>
-      <c r="U175" t="n">
-        <v>19</v>
-      </c>
-      <c r="V175" t="n">
-        <v>13</v>
-      </c>
       <c r="W175" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="X175" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y175" t="n">
         <v>29</v>
       </c>
-      <c r="Y175" t="n">
-        <v>34</v>
-      </c>
       <c r="Z175" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA175" t="n">
         <v>6.5</v>
       </c>
       <c r="AB175" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC175" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD175" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="AE175" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AF175" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG175" t="n">
         <v>9.5</v>
       </c>
-      <c r="AG175" t="n">
-        <v>9</v>
-      </c>
       <c r="AH175" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AI175" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ175" t="n">
         <v>26</v>
@@ -21825,13 +21825,13 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>4.35</v>
+        <v>4.45</v>
       </c>
       <c r="H178" t="n">
         <v>3.35</v>
       </c>
       <c r="I178" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
@@ -21854,7 +21854,7 @@
         <v>2.25</v>
       </c>
       <c r="R178" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="S178" t="n">
         <v>1.57</v>
@@ -21863,19 +21863,19 @@
         <v>9.5</v>
       </c>
       <c r="U178" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="V178" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="W178" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="X178" t="n">
         <v>55</v>
       </c>
       <c r="Y178" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="Z178" t="n">
         <v>7.3</v>
@@ -21896,13 +21896,13 @@
         <v>5.3</v>
       </c>
       <c r="AF178" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AG178" t="n">
         <v>9</v>
       </c>
       <c r="AH178" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AI178" t="n">
         <v>17</v>
@@ -21946,10 +21946,10 @@
         <v>1.7</v>
       </c>
       <c r="H179" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I179" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
@@ -21957,7 +21957,7 @@
         <v>1.35</v>
       </c>
       <c r="M179" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="N179" t="n">
         <v>2.02</v>
@@ -21966,7 +21966,7 @@
         <v>1.62</v>
       </c>
       <c r="P179" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="Q179" t="n">
         <v>2.4</v>
@@ -21978,10 +21978,10 @@
         <v>1.65</v>
       </c>
       <c r="T179" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="U179" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="V179" t="n">
         <v>8.5</v>
@@ -21999,34 +21999,34 @@
         <v>8.5</v>
       </c>
       <c r="AA179" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AB179" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AC179" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AD179" t="n">
         <v>1000</v>
       </c>
       <c r="AE179" t="n">
-        <v>11.5</v>
+        <v>10.75</v>
       </c>
       <c r="AF179" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG179" t="n">
         <v>16</v>
       </c>
       <c r="AH179" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI179" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ179" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="180">
@@ -22427,7 +22427,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H183" t="n">
         <v>2.9</v>
@@ -22466,22 +22466,22 @@
         <v>1.65</v>
       </c>
       <c r="T183" t="n">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="U183" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="V183" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="W183" t="n">
         <v>40</v>
       </c>
       <c r="X183" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Y183" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Z183" t="n">
         <v>5.3</v>
@@ -22499,22 +22499,22 @@
         <v>101</v>
       </c>
       <c r="AE183" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="AF183" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AG183" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AH183" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI183" t="n">
         <v>24</v>
       </c>
-      <c r="AI183" t="n">
-        <v>23</v>
-      </c>
       <c r="AJ183" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="184">

--- a/Jogos_da_Semana_FlashScore_2025-04-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-20.xlsx
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
         <v>3.6</v>
       </c>
       <c r="I2" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="J2" t="n">
         <v>1.04</v>
@@ -686,10 +686,10 @@
         <v>2.2</v>
       </c>
       <c r="T2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="V2" t="n">
         <v>12</v>
@@ -698,7 +698,7 @@
         <v>34</v>
       </c>
       <c r="X2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y2" t="n">
         <v>29</v>
@@ -716,10 +716,10 @@
         <v>41</v>
       </c>
       <c r="AD2" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF2" t="n">
         <v>13</v>
@@ -728,7 +728,7 @@
         <v>10</v>
       </c>
       <c r="AH2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI2" t="n">
         <v>19</v>
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="H3" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I3" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="J3" t="n">
         <v>1.04</v>
@@ -784,22 +784,22 @@
         <v>13</v>
       </c>
       <c r="L3" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M3" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N3" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="O3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="P3" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R3" t="n">
         <v>1.95</v>
@@ -817,7 +817,7 @@
         <v>26</v>
       </c>
       <c r="W3" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="X3" t="n">
         <v>67</v>
@@ -826,10 +826,10 @@
         <v>51</v>
       </c>
       <c r="Z3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB3" t="n">
         <v>21</v>
@@ -838,19 +838,19 @@
         <v>67</v>
       </c>
       <c r="AD3" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AE3" t="n">
         <v>8</v>
       </c>
       <c r="AF3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AG3" t="n">
         <v>9.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI3" t="n">
         <v>13</v>
@@ -891,46 +891,46 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H4" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I4" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J4" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K4" t="n">
+        <v>11</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="T4" t="n">
         <v>10</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S4" t="n">
-        <v>2</v>
-      </c>
-      <c r="T4" t="n">
-        <v>9</v>
       </c>
       <c r="U4" t="n">
         <v>13</v>
@@ -945,10 +945,10 @@
         <v>21</v>
       </c>
       <c r="Y4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AA4" t="n">
         <v>7</v>
@@ -960,13 +960,13 @@
         <v>51</v>
       </c>
       <c r="AD4" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG4" t="n">
         <v>12</v>
@@ -975,7 +975,7 @@
         <v>34</v>
       </c>
       <c r="AI4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ4" t="n">
         <v>34</v>
@@ -1046,13 +1046,13 @@
         <v>4</v>
       </c>
       <c r="R5" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="S5" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="T5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="U5" t="n">
         <v>51</v>
@@ -1085,7 +1085,7 @@
         <v>301</v>
       </c>
       <c r="AE5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF5" t="n">
         <v>8</v>
@@ -1135,13 +1135,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="H6" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I6" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="J6" t="n">
         <v>1.04</v>
@@ -1150,16 +1150,16 @@
         <v>13</v>
       </c>
       <c r="L6" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M6" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N6" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="O6" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="P6" t="n">
         <v>1.33</v>
@@ -1213,10 +1213,10 @@
         <v>41</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH6" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AI6" t="n">
         <v>51</v>
@@ -1266,10 +1266,10 @@
         <v>3.1</v>
       </c>
       <c r="J7" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L7" t="n">
         <v>1.29</v>
@@ -1278,10 +1278,10 @@
         <v>3.75</v>
       </c>
       <c r="N7" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="O7" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="P7" t="n">
         <v>1.4</v>
@@ -1394,10 +1394,10 @@
         <v>13</v>
       </c>
       <c r="L8" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M8" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N8" t="n">
         <v>1.73</v>
@@ -1501,31 +1501,31 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H9" t="n">
         <v>3.3</v>
       </c>
       <c r="I9" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="J9" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L9" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M9" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N9" t="n">
-        <v>2.01</v>
+        <v>1.91</v>
       </c>
       <c r="O9" t="n">
-        <v>1.89</v>
+        <v>1.99</v>
       </c>
       <c r="P9" t="n">
         <v>1.4</v>
@@ -1534,13 +1534,13 @@
         <v>2.75</v>
       </c>
       <c r="R9" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S9" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U9" t="n">
         <v>17</v>
@@ -1558,10 +1558,10 @@
         <v>34</v>
       </c>
       <c r="Z9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA9" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB9" t="n">
         <v>13</v>
@@ -1585,7 +1585,7 @@
         <v>21</v>
       </c>
       <c r="AI9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ9" t="n">
         <v>26</v>
@@ -1626,40 +1626,40 @@
         <v>4.75</v>
       </c>
       <c r="H10" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I10" t="n">
         <v>1.65</v>
       </c>
       <c r="J10" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L10" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="M10" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="N10" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="O10" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="P10" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Q10" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="R10" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="S10" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="T10" t="n">
         <v>21</v>
@@ -1674,16 +1674,16 @@
         <v>51</v>
       </c>
       <c r="X10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y10" t="n">
         <v>29</v>
       </c>
       <c r="Z10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AB10" t="n">
         <v>12</v>
@@ -1692,13 +1692,13 @@
         <v>34</v>
       </c>
       <c r="AD10" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AE10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG10" t="n">
         <v>8.5</v>
@@ -1710,7 +1710,7 @@
         <v>12</v>
       </c>
       <c r="AJ10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
@@ -1748,46 +1748,46 @@
         <v>2.25</v>
       </c>
       <c r="H11" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K11" t="n">
+        <v>8</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M11" t="n">
         <v>3</v>
       </c>
-      <c r="I11" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="N11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="T11" t="n">
         <v>7</v>
       </c>
-      <c r="L11" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M11" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="N11" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="R11" t="n">
-        <v>2</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="T11" t="n">
-        <v>6.5</v>
-      </c>
       <c r="U11" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V11" t="n">
         <v>9.5</v>
@@ -1796,16 +1796,16 @@
         <v>21</v>
       </c>
       <c r="X11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y11" t="n">
         <v>34</v>
       </c>
       <c r="Z11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AA11" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AB11" t="n">
         <v>15</v>
@@ -1814,10 +1814,10 @@
         <v>51</v>
       </c>
       <c r="AD11" t="n">
-        <v>401</v>
+        <v>301</v>
       </c>
       <c r="AE11" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF11" t="n">
         <v>17</v>
@@ -1829,7 +1829,7 @@
         <v>41</v>
       </c>
       <c r="AI11" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ11" t="n">
         <v>41</v>
@@ -1867,13 +1867,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H12" t="n">
         <v>3.1</v>
       </c>
       <c r="I12" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="J12" t="n">
         <v>1.08</v>
@@ -1992,16 +1992,16 @@
         <v>2.6</v>
       </c>
       <c r="H13" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I13" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="J13" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L13" t="n">
         <v>1.2</v>
@@ -2010,16 +2010,16 @@
         <v>4.5</v>
       </c>
       <c r="N13" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="O13" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="P13" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R13" t="n">
         <v>1.53</v>
@@ -2028,7 +2028,7 @@
         <v>2.38</v>
       </c>
       <c r="T13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U13" t="n">
         <v>15</v>
@@ -2058,10 +2058,10 @@
         <v>34</v>
       </c>
       <c r="AD13" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AE13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF13" t="n">
         <v>15</v>
@@ -2114,7 +2114,7 @@
         <v>4.75</v>
       </c>
       <c r="H14" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I14" t="n">
         <v>1.8</v>
@@ -2123,7 +2123,7 @@
         <v>1.07</v>
       </c>
       <c r="K14" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L14" t="n">
         <v>1.36</v>
@@ -2144,13 +2144,13 @@
         <v>2.63</v>
       </c>
       <c r="R14" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S14" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U14" t="n">
         <v>23</v>
@@ -2168,7 +2168,7 @@
         <v>41</v>
       </c>
       <c r="Z14" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA14" t="n">
         <v>6.5</v>
@@ -2180,10 +2180,10 @@
         <v>51</v>
       </c>
       <c r="AD14" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AE14" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AF14" t="n">
         <v>8</v>
@@ -2195,7 +2195,7 @@
         <v>15</v>
       </c>
       <c r="AI14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ14" t="n">
         <v>29</v>
@@ -2236,46 +2236,46 @@
         <v>1.73</v>
       </c>
       <c r="H15" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I15" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J15" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K15" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L15" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="M15" t="n">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="N15" t="n">
-        <v>1.99</v>
+        <v>1.73</v>
       </c>
       <c r="O15" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="P15" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="R15" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="S15" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U15" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V15" t="n">
         <v>8.5</v>
@@ -2284,28 +2284,28 @@
         <v>13</v>
       </c>
       <c r="X15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y15" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z15" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AA15" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB15" t="n">
         <v>15</v>
       </c>
       <c r="AC15" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD15" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF15" t="n">
         <v>23</v>
@@ -2317,7 +2317,7 @@
         <v>51</v>
       </c>
       <c r="AI15" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ15" t="n">
         <v>41</v>
@@ -2355,13 +2355,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H16" t="n">
         <v>3.1</v>
       </c>
       <c r="I16" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J16" t="n">
         <v>1.11</v>
@@ -2376,16 +2376,16 @@
         <v>2.63</v>
       </c>
       <c r="N16" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="O16" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P16" t="n">
         <v>1.53</v>
       </c>
-      <c r="P16" t="n">
-        <v>1.57</v>
-      </c>
       <c r="Q16" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="R16" t="n">
         <v>2.1</v>
@@ -2427,16 +2427,16 @@
         <v>501</v>
       </c>
       <c r="AE16" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG16" t="n">
         <v>15</v>
       </c>
       <c r="AH16" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI16" t="n">
         <v>41</v>
@@ -2498,10 +2498,10 @@
         <v>4</v>
       </c>
       <c r="N17" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="O17" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="P17" t="n">
         <v>1.33</v>
@@ -2611,7 +2611,7 @@
         <v>1.17</v>
       </c>
       <c r="K18" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="L18" t="n">
         <v>1.73</v>
@@ -2965,19 +2965,19 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I21" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J21" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="K21" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="L21" t="n">
         <v>1.67</v>
@@ -2986,43 +2986,43 @@
         <v>2.1</v>
       </c>
       <c r="N21" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="O21" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P21" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R21" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="S21" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T21" t="n">
         <v>4.75</v>
       </c>
       <c r="U21" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X21" t="n">
         <v>23</v>
       </c>
       <c r="Y21" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Z21" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AA21" t="n">
         <v>6.5</v>
@@ -3037,7 +3037,7 @@
         <v>501</v>
       </c>
       <c r="AE21" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF21" t="n">
         <v>19</v>
@@ -3052,7 +3052,7 @@
         <v>41</v>
       </c>
       <c r="AJ21" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22">
@@ -3707,7 +3707,7 @@
         <v>1.17</v>
       </c>
       <c r="K27" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="L27" t="n">
         <v>1.73</v>
@@ -3716,16 +3716,16 @@
         <v>2</v>
       </c>
       <c r="N27" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O27" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P27" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R27" t="n">
         <v>2.63</v>
@@ -3752,7 +3752,7 @@
         <v>51</v>
       </c>
       <c r="Z27" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AA27" t="n">
         <v>6</v>
@@ -3776,7 +3776,7 @@
         <v>13</v>
       </c>
       <c r="AH27" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI27" t="n">
         <v>41</v>
@@ -3939,19 +3939,19 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H29" t="n">
         <v>3.1</v>
       </c>
       <c r="I29" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J29" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="K29" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="L29" t="n">
         <v>1.67</v>
@@ -4002,7 +4002,7 @@
         <v>6.5</v>
       </c>
       <c r="AB29" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC29" t="n">
         <v>101</v>
@@ -4011,16 +4011,16 @@
         <v>101</v>
       </c>
       <c r="AE29" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF29" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG29" t="n">
         <v>15</v>
       </c>
       <c r="AH29" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI29" t="n">
         <v>41</v>
@@ -4061,43 +4061,43 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="H30" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="I30" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="J30" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K30" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L30" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M30" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N30" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="O30" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="P30" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q30" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R30" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S30" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="T30" t="n">
         <v>15</v>
@@ -4106,7 +4106,7 @@
         <v>21</v>
       </c>
       <c r="V30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W30" t="n">
         <v>41</v>
@@ -4115,13 +4115,13 @@
         <v>26</v>
       </c>
       <c r="Y30" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z30" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AA30" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB30" t="n">
         <v>13</v>
@@ -4130,16 +4130,16 @@
         <v>41</v>
       </c>
       <c r="AD30" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE30" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AF30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG30" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH30" t="n">
         <v>17</v>
@@ -4148,7 +4148,7 @@
         <v>13</v>
       </c>
       <c r="AJ30" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31">
@@ -4183,31 +4183,31 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="H31" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I31" t="n">
         <v>5.25</v>
       </c>
       <c r="J31" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K31" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L31" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="M31" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N31" t="n">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="O31" t="n">
-        <v>2.6</v>
+        <v>2.35</v>
       </c>
       <c r="P31" t="n">
         <v>1.25</v>
@@ -4216,16 +4216,16 @@
         <v>3.75</v>
       </c>
       <c r="R31" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S31" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="T31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U31" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V31" t="n">
         <v>8.5</v>
@@ -4240,19 +4240,19 @@
         <v>19</v>
       </c>
       <c r="Z31" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA31" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB31" t="n">
         <v>13</v>
       </c>
       <c r="AC31" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AD31" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AE31" t="n">
         <v>21</v>
@@ -4267,7 +4267,7 @@
         <v>51</v>
       </c>
       <c r="AI31" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ31" t="n">
         <v>34</v>
@@ -4308,16 +4308,16 @@
         <v>1.91</v>
       </c>
       <c r="H32" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I32" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="J32" t="n">
         <v>1.04</v>
       </c>
       <c r="K32" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L32" t="n">
         <v>1.25</v>
@@ -4344,13 +4344,13 @@
         <v>2</v>
       </c>
       <c r="T32" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U32" t="n">
         <v>9.5</v>
       </c>
       <c r="V32" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W32" t="n">
         <v>17</v>
@@ -4427,7 +4427,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H33" t="n">
         <v>3</v>
@@ -4549,13 +4549,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="H34" t="n">
         <v>3.4</v>
       </c>
       <c r="I34" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="J34" t="n">
         <v>1.08</v>
@@ -4582,22 +4582,22 @@
         <v>2.5</v>
       </c>
       <c r="R34" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S34" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="T34" t="n">
         <v>6.5</v>
       </c>
       <c r="U34" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V34" t="n">
         <v>9.5</v>
       </c>
       <c r="W34" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X34" t="n">
         <v>21</v>
@@ -4612,13 +4612,13 @@
         <v>6.5</v>
       </c>
       <c r="AB34" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC34" t="n">
         <v>67</v>
       </c>
       <c r="AD34" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AE34" t="n">
         <v>8</v>
@@ -4630,7 +4630,7 @@
         <v>12</v>
       </c>
       <c r="AH34" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI34" t="n">
         <v>29</v>
@@ -4796,7 +4796,7 @@
         <v>1.6</v>
       </c>
       <c r="H36" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I36" t="n">
         <v>6.5</v>
@@ -4814,22 +4814,22 @@
         <v>3</v>
       </c>
       <c r="N36" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O36" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S36" t="n">
         <v>1.62</v>
-      </c>
-      <c r="P36" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R36" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S36" t="n">
-        <v>1.67</v>
       </c>
       <c r="T36" t="n">
         <v>5.5</v>
@@ -4838,7 +4838,7 @@
         <v>6.5</v>
       </c>
       <c r="V36" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W36" t="n">
         <v>11</v>
@@ -4850,7 +4850,7 @@
         <v>34</v>
       </c>
       <c r="Z36" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA36" t="n">
         <v>7</v>
@@ -4859,7 +4859,7 @@
         <v>21</v>
       </c>
       <c r="AC36" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD36" t="n">
         <v>501</v>
@@ -4930,16 +4930,16 @@
         <v>7</v>
       </c>
       <c r="L37" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="M37" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="N37" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="O37" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P37" t="n">
         <v>1.53</v>
@@ -5037,7 +5037,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H38" t="n">
         <v>3.2</v>
@@ -5058,16 +5058,16 @@
         <v>3</v>
       </c>
       <c r="N38" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="O38" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P38" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R38" t="n">
         <v>1.91</v>
@@ -5091,10 +5091,10 @@
         <v>19</v>
       </c>
       <c r="Y38" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z38" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA38" t="n">
         <v>6</v>
@@ -5162,61 +5162,61 @@
         <v>1.95</v>
       </c>
       <c r="H39" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I39" t="n">
         <v>4.5</v>
       </c>
       <c r="J39" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="K39" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L39" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="M39" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="N39" t="n">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="O39" t="n">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="P39" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R39" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="S39" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T39" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="U39" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V39" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W39" t="n">
         <v>17</v>
       </c>
       <c r="X39" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y39" t="n">
         <v>41</v>
       </c>
       <c r="Z39" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AA39" t="n">
         <v>6</v>
@@ -5231,7 +5231,7 @@
         <v>101</v>
       </c>
       <c r="AE39" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF39" t="n">
         <v>21</v>
@@ -5296,16 +5296,16 @@
         <v>9</v>
       </c>
       <c r="L40" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M40" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N40" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O40" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P40" t="n">
         <v>1.5</v>
@@ -5769,94 +5769,94 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="H44" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="I44" t="n">
         <v>2.4</v>
       </c>
       <c r="J44" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K44" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="L44" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M44" t="n">
-        <v>2.72</v>
+        <v>2.6</v>
       </c>
       <c r="N44" t="n">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="O44" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="P44" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="R44" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="S44" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="T44" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="U44" t="n">
         <v>19</v>
       </c>
       <c r="V44" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="W44" t="n">
+        <v>60</v>
+      </c>
+      <c r="X44" t="n">
+        <v>37</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>70</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>600</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AF44" t="n">
         <v>11.5</v>
       </c>
-      <c r="W44" t="n">
-        <v>55</v>
-      </c>
-      <c r="X44" t="n">
-        <v>35</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>37</v>
-      </c>
-      <c r="Z44" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AB44" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>60</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>500</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>7</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>11.75</v>
-      </c>
       <c r="AG44" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AH44" t="n">
         <v>27</v>
       </c>
       <c r="AI44" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ44" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45">
@@ -5891,94 +5891,94 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="I45" t="n">
         <v>3.6</v>
       </c>
       <c r="J45" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K45" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="L45" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="M45" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="N45" t="n">
-        <v>2.27</v>
+        <v>2.42</v>
       </c>
       <c r="O45" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="P45" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.42</v>
+        <v>2.35</v>
       </c>
       <c r="R45" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S45" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="T45" t="n">
-        <v>6.3</v>
+        <v>5.7</v>
       </c>
       <c r="U45" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V45" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="W45" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X45" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="Y45" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Z45" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="AA45" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AB45" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AC45" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AD45" t="n">
         <v>900</v>
       </c>
       <c r="AE45" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AF45" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AG45" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH45" t="n">
         <v>55</v>
       </c>
       <c r="AI45" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AJ45" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46">
@@ -6135,37 +6135,37 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H47" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I47" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="J47" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K47" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L47" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M47" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N47" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O47" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P47" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R47" t="n">
         <v>1.83</v>
@@ -6177,19 +6177,19 @@
         <v>7</v>
       </c>
       <c r="U47" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V47" t="n">
         <v>9.5</v>
       </c>
       <c r="W47" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X47" t="n">
         <v>19</v>
       </c>
       <c r="Y47" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z47" t="n">
         <v>8</v>
@@ -6216,7 +6216,7 @@
         <v>13</v>
       </c>
       <c r="AH47" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI47" t="n">
         <v>29</v>
@@ -6257,31 +6257,31 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H48" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I48" t="n">
         <v>3</v>
       </c>
       <c r="J48" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K48" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L48" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M48" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N48" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="O48" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="P48" t="n">
         <v>1.36</v>
@@ -6302,7 +6302,7 @@
         <v>12</v>
       </c>
       <c r="V48" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W48" t="n">
         <v>21</v>
@@ -6388,22 +6388,22 @@
         <v>2.45</v>
       </c>
       <c r="J49" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K49" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L49" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M49" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N49" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="O49" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="P49" t="n">
         <v>1.5</v>
@@ -6867,13 +6867,13 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="H53" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I53" t="n">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="J53" t="n">
         <v>1.03</v>
@@ -6882,16 +6882,16 @@
         <v>15</v>
       </c>
       <c r="L53" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="M53" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N53" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="O53" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="P53" t="n">
         <v>1.33</v>
@@ -6915,10 +6915,10 @@
         <v>10</v>
       </c>
       <c r="W53" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X53" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y53" t="n">
         <v>23</v>
@@ -6942,13 +6942,13 @@
         <v>11</v>
       </c>
       <c r="AF53" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG53" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH53" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI53" t="n">
         <v>19</v>
@@ -6989,19 +6989,19 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="H54" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="I54" t="n">
-        <v>5.75</v>
+        <v>7</v>
       </c>
       <c r="J54" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K54" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L54" t="n">
         <v>1.22</v>
@@ -7010,10 +7010,10 @@
         <v>4</v>
       </c>
       <c r="N54" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O54" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P54" t="n">
         <v>1.33</v>
@@ -7022,61 +7022,61 @@
         <v>3.25</v>
       </c>
       <c r="R54" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S54" t="n">
         <v>1.8</v>
-      </c>
-      <c r="S54" t="n">
-        <v>1.95</v>
       </c>
       <c r="T54" t="n">
         <v>7.5</v>
       </c>
       <c r="U54" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="V54" t="n">
         <v>8.5</v>
       </c>
       <c r="W54" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="X54" t="n">
         <v>12</v>
       </c>
       <c r="Y54" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z54" t="n">
         <v>13</v>
       </c>
       <c r="AA54" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB54" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC54" t="n">
         <v>51</v>
       </c>
       <c r="AD54" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE54" t="n">
         <v>17</v>
       </c>
       <c r="AF54" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG54" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AH54" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI54" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ54" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55">
@@ -7132,10 +7132,10 @@
         <v>3.25</v>
       </c>
       <c r="N55" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="O55" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="P55" t="n">
         <v>1.44</v>
@@ -7233,76 +7233,76 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="H56" t="n">
         <v>3.5</v>
       </c>
       <c r="I56" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="J56" t="n">
         <v>1.04</v>
       </c>
       <c r="K56" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L56" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M56" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N56" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="O56" t="n">
+        <v>2</v>
+      </c>
+      <c r="P56" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>3</v>
+      </c>
+      <c r="R56" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S56" t="n">
         <v>2.1</v>
       </c>
-      <c r="P56" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R56" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S56" t="n">
-        <v>2.25</v>
-      </c>
       <c r="T56" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="U56" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V56" t="n">
         <v>9</v>
       </c>
       <c r="W56" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X56" t="n">
         <v>15</v>
       </c>
       <c r="Y56" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z56" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB56" t="n">
         <v>13</v>
-      </c>
-      <c r="AA56" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB56" t="n">
-        <v>12</v>
       </c>
       <c r="AC56" t="n">
         <v>41</v>
       </c>
       <c r="AD56" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AE56" t="n">
         <v>12</v>
@@ -7314,10 +7314,10 @@
         <v>12</v>
       </c>
       <c r="AH56" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI56" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ56" t="n">
         <v>29</v>
@@ -7364,22 +7364,22 @@
         <v>2.55</v>
       </c>
       <c r="J57" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K57" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L57" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="M57" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N57" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="O57" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="P57" t="n">
         <v>1.33</v>
@@ -7388,13 +7388,13 @@
         <v>3.25</v>
       </c>
       <c r="R57" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S57" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="T57" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U57" t="n">
         <v>15</v>
@@ -7412,16 +7412,16 @@
         <v>23</v>
       </c>
       <c r="Z57" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA57" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB57" t="n">
         <v>11</v>
       </c>
       <c r="AC57" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AD57" t="n">
         <v>126</v>
@@ -7477,31 +7477,31 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H58" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I58" t="n">
         <v>3.1</v>
       </c>
       <c r="J58" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K58" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L58" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M58" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N58" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="O58" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="P58" t="n">
         <v>1.33</v>
@@ -7510,19 +7510,19 @@
         <v>3.25</v>
       </c>
       <c r="R58" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S58" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T58" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U58" t="n">
         <v>12</v>
       </c>
       <c r="V58" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W58" t="n">
         <v>21</v>
@@ -7531,25 +7531,25 @@
         <v>17</v>
       </c>
       <c r="Y58" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z58" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA58" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB58" t="n">
         <v>12</v>
       </c>
       <c r="AC58" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AD58" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AE58" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF58" t="n">
         <v>17</v>
@@ -7564,7 +7564,7 @@
         <v>23</v>
       </c>
       <c r="AJ58" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59">
@@ -7843,13 +7843,13 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="H61" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I61" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="J61" t="n">
         <v>1.13</v>
@@ -7885,13 +7885,13 @@
         <v>6</v>
       </c>
       <c r="U61" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V61" t="n">
         <v>11</v>
       </c>
       <c r="W61" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X61" t="n">
         <v>26</v>
@@ -7906,7 +7906,7 @@
         <v>6</v>
       </c>
       <c r="AB61" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC61" t="n">
         <v>81</v>
@@ -7921,16 +7921,16 @@
         <v>13</v>
       </c>
       <c r="AG61" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH61" t="n">
         <v>34</v>
       </c>
       <c r="AI61" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ61" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="62">
@@ -8319,90 +8319,90 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="H65" t="n">
-        <v>3.85</v>
+        <v>4.05</v>
       </c>
       <c r="I65" t="n">
-        <v>5.7</v>
+        <v>6.6</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="M65" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="N65" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="O65" t="n">
         <v>1.82</v>
       </c>
-      <c r="O65" t="n">
-        <v>1.78</v>
-      </c>
       <c r="P65" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="Q65" t="n">
         <v>2.57</v>
       </c>
       <c r="R65" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="S65" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="T65" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="U65" t="n">
         <v>6.4</v>
-      </c>
-      <c r="U65" t="n">
-        <v>6.9</v>
       </c>
       <c r="V65" t="n">
         <v>8.25</v>
       </c>
       <c r="W65" t="n">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="X65" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y65" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z65" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AA65" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="AB65" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AC65" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AD65" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AE65" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AF65" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AG65" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="AH65" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AI65" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AJ65" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66">
@@ -8559,13 +8559,13 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="H67" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I67" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J67" t="n">
         <v>1.04</v>
@@ -8580,10 +8580,10 @@
         <v>3.75</v>
       </c>
       <c r="N67" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O67" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="P67" t="n">
         <v>1.36</v>
@@ -8592,58 +8592,58 @@
         <v>3</v>
       </c>
       <c r="R67" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S67" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="T67" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U67" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="V67" t="n">
         <v>8.5</v>
       </c>
       <c r="W67" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X67" t="n">
         <v>12</v>
       </c>
       <c r="Y67" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z67" t="n">
         <v>12</v>
       </c>
       <c r="AA67" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB67" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC67" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD67" t="n">
         <v>351</v>
       </c>
       <c r="AE67" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF67" t="n">
         <v>34</v>
       </c>
       <c r="AG67" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH67" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI67" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ67" t="n">
         <v>51</v>
@@ -8681,13 +8681,13 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="H68" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I68" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="J68" t="n">
         <v>1.07</v>
@@ -8714,25 +8714,25 @@
         <v>2.63</v>
       </c>
       <c r="R68" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S68" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T68" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U68" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="V68" t="n">
         <v>9</v>
       </c>
       <c r="W68" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="X68" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y68" t="n">
         <v>29</v>
@@ -8741,31 +8741,31 @@
         <v>8.5</v>
       </c>
       <c r="AA68" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB68" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC68" t="n">
         <v>51</v>
       </c>
       <c r="AD68" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE68" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AF68" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AG68" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH68" t="n">
         <v>41</v>
       </c>
       <c r="AI68" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ68" t="n">
         <v>41</v>
@@ -8803,13 +8803,13 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.83</v>
+        <v>2.15</v>
       </c>
       <c r="H69" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I69" t="n">
-        <v>3.6</v>
+        <v>2.88</v>
       </c>
       <c r="J69" t="n">
         <v>1.05</v>
@@ -8824,10 +8824,10 @@
         <v>3.5</v>
       </c>
       <c r="N69" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="O69" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="P69" t="n">
         <v>1.4</v>
@@ -8836,34 +8836,34 @@
         <v>2.75</v>
       </c>
       <c r="R69" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S69" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T69" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U69" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="V69" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="W69" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="X69" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Y69" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z69" t="n">
         <v>11</v>
       </c>
       <c r="AA69" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB69" t="n">
         <v>15</v>
@@ -8872,22 +8872,22 @@
         <v>51</v>
       </c>
       <c r="AD69" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE69" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AF69" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG69" t="n">
         <v>11</v>
       </c>
-      <c r="AF69" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG69" t="n">
-        <v>13</v>
-      </c>
       <c r="AH69" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI69" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AJ69" t="n">
         <v>34</v>
@@ -8925,13 +8925,13 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="H70" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I70" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="J70" t="n">
         <v>1.03</v>
@@ -8946,10 +8946,10 @@
         <v>4.33</v>
       </c>
       <c r="N70" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="O70" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="P70" t="n">
         <v>1.3</v>
@@ -8958,25 +8958,25 @@
         <v>3.4</v>
       </c>
       <c r="R70" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S70" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T70" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="U70" t="n">
         <v>10</v>
       </c>
-      <c r="U70" t="n">
-        <v>12</v>
-      </c>
       <c r="V70" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W70" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="X70" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y70" t="n">
         <v>21</v>
@@ -8985,31 +8985,31 @@
         <v>15</v>
       </c>
       <c r="AA70" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB70" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC70" t="n">
         <v>41</v>
       </c>
       <c r="AD70" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AE70" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF70" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG70" t="n">
         <v>13</v>
       </c>
-      <c r="AF70" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG70" t="n">
-        <v>12</v>
-      </c>
       <c r="AH70" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI70" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AJ70" t="n">
         <v>29</v>
@@ -9291,13 +9291,13 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H73" t="n">
         <v>3.3</v>
       </c>
       <c r="I73" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="J73" t="n">
         <v>1.06</v>
@@ -9800,10 +9800,10 @@
         <v>3.75</v>
       </c>
       <c r="N77" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="O77" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="P77" t="n">
         <v>1.36</v>
@@ -10026,10 +10026,10 @@
         <v>2.7</v>
       </c>
       <c r="H79" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="I79" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J79" t="n">
         <v>1.06</v>
@@ -10038,37 +10038,37 @@
         <v>10</v>
       </c>
       <c r="L79" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="M79" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="N79" t="n">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="O79" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="P79" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q79" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R79" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="S79" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="T79" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="U79" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V79" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W79" t="n">
         <v>26</v>
@@ -10077,25 +10077,25 @@
         <v>21</v>
       </c>
       <c r="Y79" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z79" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA79" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB79" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AC79" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD79" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE79" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF79" t="n">
         <v>15</v>
@@ -10267,19 +10267,19 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="H81" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="I81" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="J81" t="n">
         <v>1.03</v>
       </c>
       <c r="K81" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L81" t="n">
         <v>1.17</v>
@@ -10306,7 +10306,7 @@
         <v>1.8</v>
       </c>
       <c r="T81" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U81" t="n">
         <v>7</v>
@@ -10324,16 +10324,16 @@
         <v>26</v>
       </c>
       <c r="Z81" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA81" t="n">
         <v>11</v>
       </c>
       <c r="AB81" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC81" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD81" t="n">
         <v>301</v>
@@ -10342,7 +10342,7 @@
         <v>23</v>
       </c>
       <c r="AF81" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG81" t="n">
         <v>26</v>
@@ -10351,7 +10351,7 @@
         <v>101</v>
       </c>
       <c r="AI81" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AJ81" t="n">
         <v>51</v>
@@ -10389,24 +10389,24 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.82</v>
+        <v>3.05</v>
       </c>
       <c r="H82" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="I82" t="n">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M82" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="N82" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="O82" t="n">
         <v>1.8</v>
@@ -10415,64 +10415,64 @@
         <v>1.4</v>
       </c>
       <c r="Q82" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="R82" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S82" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="T82" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="U82" t="n">
+        <v>16</v>
+      </c>
+      <c r="V82" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="W82" t="n">
+        <v>40</v>
+      </c>
+      <c r="X82" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z82" t="n">
         <v>9.5</v>
       </c>
-      <c r="U82" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="V82" t="n">
-        <v>10</v>
-      </c>
-      <c r="W82" t="n">
-        <v>35</v>
-      </c>
-      <c r="X82" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y82" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z82" t="n">
-        <v>9.75</v>
-      </c>
       <c r="AA82" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AB82" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC82" t="n">
         <v>50</v>
       </c>
       <c r="AD82" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AE82" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AF82" t="n">
         <v>12.5</v>
       </c>
       <c r="AG82" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AH82" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI82" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AJ82" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="83">
@@ -10640,16 +10640,16 @@
         <v>19</v>
       </c>
       <c r="L84" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="M84" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="N84" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="O84" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="P84" t="n">
         <v>1.25</v>
@@ -11357,49 +11357,49 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H90" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I90" t="n">
         <v>4.75</v>
       </c>
       <c r="J90" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K90" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L90" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M90" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N90" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="O90" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="P90" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R90" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S90" t="n">
         <v>2.05</v>
       </c>
-      <c r="P90" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q90" t="n">
-        <v>3</v>
-      </c>
-      <c r="R90" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S90" t="n">
-        <v>2</v>
-      </c>
       <c r="T90" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U90" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V90" t="n">
         <v>8.5</v>
@@ -11414,25 +11414,25 @@
         <v>23</v>
       </c>
       <c r="Z90" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA90" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB90" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC90" t="n">
         <v>41</v>
       </c>
       <c r="AD90" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE90" t="n">
         <v>15</v>
       </c>
       <c r="AF90" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG90" t="n">
         <v>15</v>
@@ -11482,7 +11482,7 @@
         <v>1.75</v>
       </c>
       <c r="H91" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I91" t="n">
         <v>4.75</v>
@@ -11539,7 +11539,7 @@
         <v>9</v>
       </c>
       <c r="AA91" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB91" t="n">
         <v>17</v>
@@ -11548,7 +11548,7 @@
         <v>51</v>
       </c>
       <c r="AD91" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AE91" t="n">
         <v>12</v>
@@ -11604,7 +11604,7 @@
         <v>3</v>
       </c>
       <c r="H92" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I92" t="n">
         <v>2.4</v>
@@ -11613,7 +11613,7 @@
         <v>1.07</v>
       </c>
       <c r="K92" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L92" t="n">
         <v>1.36</v>
@@ -11628,22 +11628,22 @@
         <v>1.67</v>
       </c>
       <c r="P92" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q92" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R92" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S92" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="T92" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U92" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V92" t="n">
         <v>11</v>
@@ -11655,7 +11655,7 @@
         <v>26</v>
       </c>
       <c r="Y92" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z92" t="n">
         <v>8.5</v>
@@ -11670,10 +11670,10 @@
         <v>51</v>
       </c>
       <c r="AD92" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE92" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF92" t="n">
         <v>11</v>
@@ -11726,7 +11726,7 @@
         <v>2.05</v>
       </c>
       <c r="H93" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I93" t="n">
         <v>3.4</v>
@@ -11738,16 +11738,16 @@
         <v>11</v>
       </c>
       <c r="L93" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M93" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N93" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="O93" t="n">
         <v>1.95</v>
-      </c>
-      <c r="O93" t="n">
-        <v>1.9</v>
       </c>
       <c r="P93" t="n">
         <v>1.4</v>
@@ -11795,7 +11795,7 @@
         <v>201</v>
       </c>
       <c r="AE93" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF93" t="n">
         <v>17</v>
@@ -12699,13 +12699,13 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="H101" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="I101" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
@@ -12730,19 +12730,19 @@
         <v>1.53</v>
       </c>
       <c r="T101" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="U101" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="V101" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W101" t="n">
         <v>450</v>
       </c>
       <c r="X101" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="Y101" t="n">
         <v>120</v>
@@ -12757,7 +12757,7 @@
         <v>24</v>
       </c>
       <c r="AC101" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AD101" t="n">
         <v>600</v>
@@ -12766,7 +12766,7 @@
         <v>6.1</v>
       </c>
       <c r="AF101" t="n">
-        <v>4.85</v>
+        <v>4.9</v>
       </c>
       <c r="AG101" t="n">
         <v>8.25</v>
@@ -12778,7 +12778,7 @@
         <v>9.25</v>
       </c>
       <c r="AJ101" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="102">
@@ -12816,20 +12816,20 @@
         <v>1.04</v>
       </c>
       <c r="H102" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="I102" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
       <c r="M102" t="inlineStr"/>
       <c r="N102" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="O102" t="n">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="P102" t="inlineStr"/>
       <c r="Q102" t="inlineStr"/>
@@ -12840,55 +12840,55 @@
         <v>1.73</v>
       </c>
       <c r="T102" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U102" t="n">
-        <v>8.25</v>
+        <v>7.6</v>
       </c>
       <c r="V102" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="W102" t="n">
-        <v>6.4</v>
+        <v>5.8</v>
       </c>
       <c r="X102" t="n">
-        <v>10.75</v>
+        <v>11.75</v>
       </c>
       <c r="Y102" t="n">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="Z102" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AA102" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AB102" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="AC102" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="AD102" t="n">
         <v>600</v>
       </c>
       <c r="AE102" t="n">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="AF102" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="AG102" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AH102" t="n">
         <v>250</v>
       </c>
       <c r="AI102" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="AJ102" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
     </row>
     <row r="103">
@@ -12923,27 +12923,27 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>4.6</v>
+        <v>4.85</v>
       </c>
       <c r="H103" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I103" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M103" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="N103" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="O103" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="P103" t="inlineStr"/>
       <c r="Q103" t="inlineStr"/>
@@ -12957,52 +12957,52 @@
         <v>14</v>
       </c>
       <c r="U103" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="V103" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="W103" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="X103" t="n">
+        <v>35</v>
+      </c>
+      <c r="Y103" t="n">
         <v>32</v>
-      </c>
-      <c r="Y103" t="n">
-        <v>30</v>
       </c>
       <c r="Z103" t="n">
         <v>14.5</v>
       </c>
       <c r="AA103" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AB103" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AC103" t="n">
         <v>40</v>
       </c>
       <c r="AD103" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AE103" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AF103" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AG103" t="n">
         <v>7</v>
       </c>
       <c r="AH103" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="AI103" t="n">
         <v>9.5</v>
       </c>
       <c r="AJ103" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="104">
@@ -13037,13 +13037,13 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="H104" t="n">
         <v>3.75</v>
       </c>
       <c r="I104" t="n">
-        <v>3.95</v>
+        <v>4.15</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
@@ -13054,18 +13054,18 @@
         <v>4.5</v>
       </c>
       <c r="N104" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="O104" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="P104" t="inlineStr"/>
       <c r="Q104" t="inlineStr"/>
       <c r="R104" t="n">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="S104" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="T104" t="n">
         <v>8</v>
@@ -13077,10 +13077,10 @@
         <v>7</v>
       </c>
       <c r="W104" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="X104" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="Y104" t="n">
         <v>15.5</v>
@@ -13092,31 +13092,31 @@
         <v>6.8</v>
       </c>
       <c r="AB104" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AC104" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AD104" t="n">
         <v>175</v>
       </c>
       <c r="AE104" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AF104" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG104" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AH104" t="n">
         <v>50</v>
       </c>
       <c r="AI104" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AJ104" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="105">
@@ -13457,13 +13457,13 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H108" t="n">
         <v>3.5</v>
       </c>
       <c r="I108" t="n">
-        <v>2.63</v>
+        <v>2.57</v>
       </c>
       <c r="J108" t="n">
         <v>1.02</v>
@@ -13579,13 +13579,13 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="H109" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I109" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="J109" t="n">
         <v>1.03</v>
@@ -13600,19 +13600,19 @@
         <v>4.33</v>
       </c>
       <c r="N109" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="O109" t="n">
         <v>2.2</v>
       </c>
       <c r="P109" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="Q109" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R109" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="S109" t="n">
         <v>2.1</v>
@@ -13621,13 +13621,13 @@
         <v>15</v>
       </c>
       <c r="U109" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="V109" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="W109" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="X109" t="n">
         <v>34</v>
@@ -13639,7 +13639,7 @@
         <v>15</v>
       </c>
       <c r="AA109" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB109" t="n">
         <v>15</v>
@@ -13654,13 +13654,13 @@
         <v>8.5</v>
       </c>
       <c r="AF109" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AG109" t="n">
         <v>8.5</v>
       </c>
       <c r="AH109" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI109" t="n">
         <v>13</v>
@@ -13722,19 +13722,19 @@
         <v>4</v>
       </c>
       <c r="N110" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="O110" t="n">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="P110" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q110" t="n">
         <v>3.25</v>
       </c>
       <c r="R110" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="S110" t="n">
         <v>2.25</v>
@@ -13823,19 +13823,19 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="H111" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I111" t="n">
-        <v>6.25</v>
+        <v>5.75</v>
       </c>
       <c r="J111" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K111" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L111" t="n">
         <v>1.25</v>
@@ -13844,10 +13844,10 @@
         <v>3.75</v>
       </c>
       <c r="N111" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="O111" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="P111" t="n">
         <v>1.36</v>
@@ -13865,7 +13865,7 @@
         <v>7</v>
       </c>
       <c r="U111" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="V111" t="n">
         <v>8.5</v>
@@ -13883,10 +13883,10 @@
         <v>11</v>
       </c>
       <c r="AA111" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB111" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC111" t="n">
         <v>51</v>
@@ -13898,7 +13898,7 @@
         <v>15</v>
       </c>
       <c r="AF111" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG111" t="n">
         <v>19</v>
@@ -13910,7 +13910,7 @@
         <v>41</v>
       </c>
       <c r="AJ111" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="112">
@@ -13945,91 +13945,91 @@
         </is>
       </c>
       <c r="G112" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="H112" t="n">
         <v>2.75</v>
       </c>
-      <c r="H112" t="n">
-        <v>2.9</v>
-      </c>
       <c r="I112" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="J112" t="n">
-        <v>1.08</v>
+        <v>1.14</v>
       </c>
       <c r="K112" t="n">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="L112" t="n">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="M112" t="n">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="N112" t="n">
-        <v>2.35</v>
+        <v>2.7</v>
       </c>
       <c r="O112" t="n">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="P112" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="Q112" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="R112" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="S112" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="T112" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="U112" t="n">
         <v>12</v>
       </c>
       <c r="V112" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W112" t="n">
         <v>29</v>
       </c>
       <c r="X112" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="Y112" t="n">
         <v>41</v>
       </c>
       <c r="Z112" t="n">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="AA112" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB112" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AC112" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD112" t="n">
         <v>351</v>
       </c>
       <c r="AE112" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AF112" t="n">
         <v>12</v>
       </c>
       <c r="AG112" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH112" t="n">
         <v>29</v>
       </c>
       <c r="AI112" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AJ112" t="n">
         <v>41</v>
@@ -14076,22 +14076,22 @@
         <v>4.75</v>
       </c>
       <c r="J113" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K113" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L113" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="M113" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="N113" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="O113" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="P113" t="n">
         <v>1.44</v>
@@ -14189,13 +14189,13 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H114" t="n">
         <v>3.1</v>
       </c>
       <c r="I114" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="J114" t="n">
         <v>1.06</v>
@@ -14228,7 +14228,7 @@
         <v>2.1</v>
       </c>
       <c r="T114" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U114" t="n">
         <v>15</v>
@@ -14240,7 +14240,7 @@
         <v>29</v>
       </c>
       <c r="X114" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y114" t="n">
         <v>29</v>
@@ -14264,13 +14264,13 @@
         <v>9</v>
       </c>
       <c r="AF114" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG114" t="n">
         <v>10</v>
       </c>
       <c r="AH114" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI114" t="n">
         <v>21</v>
@@ -14311,19 +14311,19 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="H115" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="I115" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J115" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K115" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L115" t="n">
         <v>1.22</v>
@@ -14332,34 +14332,34 @@
         <v>4</v>
       </c>
       <c r="N115" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O115" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="P115" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q115" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R115" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S115" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="T115" t="n">
         <v>7</v>
       </c>
       <c r="U115" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="V115" t="n">
         <v>8.5</v>
       </c>
       <c r="W115" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X115" t="n">
         <v>12</v>
@@ -14368,28 +14368,28 @@
         <v>26</v>
       </c>
       <c r="Z115" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA115" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB115" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC115" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD115" t="n">
+        <v>301</v>
+      </c>
+      <c r="AE115" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF115" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG115" t="n">
         <v>21</v>
-      </c>
-      <c r="AC115" t="n">
-        <v>67</v>
-      </c>
-      <c r="AD115" t="n">
-        <v>351</v>
-      </c>
-      <c r="AE115" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF115" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG115" t="n">
-        <v>23</v>
       </c>
       <c r="AH115" t="n">
         <v>81</v>
@@ -14454,10 +14454,10 @@
         <v>4.33</v>
       </c>
       <c r="N116" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O116" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P116" t="n">
         <v>1.33</v>
@@ -14555,13 +14555,13 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="H117" t="n">
         <v>3.5</v>
       </c>
       <c r="I117" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J117" t="n">
         <v>1.06</v>
@@ -14588,16 +14588,16 @@
         <v>2.63</v>
       </c>
       <c r="R117" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S117" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="T117" t="n">
         <v>6.5</v>
       </c>
       <c r="U117" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V117" t="n">
         <v>9</v>
@@ -14624,22 +14624,22 @@
         <v>51</v>
       </c>
       <c r="AD117" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AE117" t="n">
         <v>10</v>
       </c>
       <c r="AF117" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG117" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH117" t="n">
         <v>41</v>
       </c>
       <c r="AI117" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ117" t="n">
         <v>41</v>
@@ -14799,13 +14799,13 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H119" t="n">
         <v>3</v>
       </c>
       <c r="I119" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="J119" t="n">
         <v>1.08</v>
@@ -14814,16 +14814,16 @@
         <v>8</v>
       </c>
       <c r="L119" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M119" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N119" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O119" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P119" t="n">
         <v>1.5</v>
@@ -14832,13 +14832,13 @@
         <v>2.5</v>
       </c>
       <c r="R119" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="S119" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T119" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U119" t="n">
         <v>15</v>
@@ -14874,13 +14874,13 @@
         <v>7</v>
       </c>
       <c r="AF119" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG119" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH119" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI119" t="n">
         <v>21</v>
@@ -14921,19 +14921,19 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="H120" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I120" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="J120" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="K120" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="L120" t="n">
         <v>1.5</v>
@@ -14960,16 +14960,16 @@
         <v>1.62</v>
       </c>
       <c r="T120" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U120" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V120" t="n">
         <v>10</v>
       </c>
       <c r="W120" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X120" t="n">
         <v>21</v>
@@ -14993,10 +14993,10 @@
         <v>1000</v>
       </c>
       <c r="AE120" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF120" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG120" t="n">
         <v>15</v>
@@ -15005,7 +15005,7 @@
         <v>41</v>
       </c>
       <c r="AI120" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ120" t="n">
         <v>51</v>
@@ -15043,94 +15043,94 @@
         </is>
       </c>
       <c r="G121" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H121" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I121" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="J121" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="K121" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L121" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M121" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="N121" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="O121" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P121" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="R121" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S121" t="n">
         <v>1.8</v>
       </c>
-      <c r="H121" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I121" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="J121" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="K121" t="n">
-        <v>8</v>
-      </c>
-      <c r="L121" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="M121" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="N121" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="O121" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="P121" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="Q121" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="R121" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S121" t="n">
-        <v>2.02</v>
-      </c>
       <c r="T121" t="n">
-        <v>7.5</v>
+        <v>6.3</v>
       </c>
       <c r="U121" t="n">
         <v>9.75</v>
       </c>
       <c r="V121" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="W121" t="n">
-        <v>16.5</v>
+        <v>21</v>
       </c>
       <c r="X121" t="n">
-        <v>14.5</v>
+        <v>20</v>
       </c>
       <c r="Y121" t="n">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="Z121" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AA121" t="n">
-        <v>7.1</v>
+        <v>6.3</v>
       </c>
       <c r="AB121" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC121" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="AD121" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AE121" t="n">
-        <v>11.75</v>
+        <v>9</v>
       </c>
       <c r="AF121" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="AG121" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AH121" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AI121" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ121" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="122">
@@ -15168,76 +15168,76 @@
         <v>1.91</v>
       </c>
       <c r="H122" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="I122" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="J122" t="n">
         <v>1.03</v>
       </c>
       <c r="K122" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="L122" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="M122" t="n">
-        <v>4.55</v>
+        <v>4.35</v>
       </c>
       <c r="N122" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="O122" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="P122" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="Q122" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="R122" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="S122" t="n">
-        <v>2.37</v>
+        <v>2.32</v>
       </c>
       <c r="T122" t="n">
-        <v>10</v>
+        <v>9.25</v>
       </c>
       <c r="U122" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="V122" t="n">
         <v>9</v>
       </c>
       <c r="W122" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="X122" t="n">
         <v>14.5</v>
       </c>
       <c r="Y122" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z122" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AA122" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AB122" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC122" t="n">
         <v>45</v>
       </c>
       <c r="AD122" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AE122" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AF122" t="n">
         <v>23</v>
@@ -15249,10 +15249,10 @@
         <v>50</v>
       </c>
       <c r="AI122" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ122" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="123">
@@ -15287,13 +15287,13 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2.88</v>
+        <v>2.55</v>
       </c>
       <c r="H123" t="n">
         <v>3.2</v>
       </c>
       <c r="I123" t="n">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="J123" t="n">
         <v>1.07</v>
@@ -15302,16 +15302,16 @@
         <v>9</v>
       </c>
       <c r="L123" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M123" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N123" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="O123" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="P123" t="n">
         <v>1.44</v>
@@ -15320,31 +15320,31 @@
         <v>2.63</v>
       </c>
       <c r="R123" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S123" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="T123" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U123" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V123" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W123" t="n">
+        <v>26</v>
+      </c>
+      <c r="X123" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y123" t="n">
         <v>29</v>
       </c>
-      <c r="X123" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y123" t="n">
-        <v>34</v>
-      </c>
       <c r="Z123" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA123" t="n">
         <v>6</v>
@@ -15356,22 +15356,22 @@
         <v>51</v>
       </c>
       <c r="AD123" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE123" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AF123" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG123" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH123" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI123" t="n">
         <v>23</v>
-      </c>
-      <c r="AI123" t="n">
-        <v>21</v>
       </c>
       <c r="AJ123" t="n">
         <v>34</v>
@@ -15412,7 +15412,7 @@
         <v>1.75</v>
       </c>
       <c r="H124" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I124" t="n">
         <v>4.5</v>
@@ -15430,16 +15430,16 @@
         <v>3.75</v>
       </c>
       <c r="N124" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="O124" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="P124" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q124" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R124" t="n">
         <v>1.8</v>
@@ -15448,7 +15448,7 @@
         <v>1.91</v>
       </c>
       <c r="T124" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U124" t="n">
         <v>8.5</v>
@@ -15457,13 +15457,13 @@
         <v>8.5</v>
       </c>
       <c r="W124" t="n">
+        <v>15</v>
+      </c>
+      <c r="X124" t="n">
         <v>13</v>
       </c>
-      <c r="X124" t="n">
-        <v>15</v>
-      </c>
       <c r="Y124" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z124" t="n">
         <v>11</v>
@@ -15478,7 +15478,7 @@
         <v>51</v>
       </c>
       <c r="AD124" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE124" t="n">
         <v>13</v>
@@ -15653,13 +15653,13 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="H126" t="n">
         <v>3.25</v>
       </c>
       <c r="I126" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="J126" t="n">
         <v>1.06</v>
@@ -15686,25 +15686,25 @@
         <v>2.63</v>
       </c>
       <c r="R126" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S126" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="T126" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U126" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V126" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W126" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X126" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y126" t="n">
         <v>29</v>
@@ -15728,16 +15728,16 @@
         <v>9</v>
       </c>
       <c r="AF126" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG126" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH126" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI126" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ126" t="n">
         <v>34</v>
@@ -15796,10 +15796,10 @@
         <v>3</v>
       </c>
       <c r="N127" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O127" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P127" t="n">
         <v>1.44</v>
@@ -15897,19 +15897,19 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="H128" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="I128" t="n">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="J128" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K128" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L128" t="n">
         <v>1.33</v>
@@ -15918,16 +15918,16 @@
         <v>3.25</v>
       </c>
       <c r="N128" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="O128" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="P128" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q128" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R128" t="n">
         <v>2.25</v>
@@ -15936,7 +15936,7 @@
         <v>1.57</v>
       </c>
       <c r="T128" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="U128" t="n">
         <v>34</v>
@@ -15957,7 +15957,7 @@
         <v>9</v>
       </c>
       <c r="AA128" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB128" t="n">
         <v>23</v>
@@ -15978,10 +15978,10 @@
         <v>9</v>
       </c>
       <c r="AH128" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI128" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ128" t="n">
         <v>34</v>
@@ -16141,19 +16141,19 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="H130" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I130" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J130" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K130" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L130" t="n">
         <v>1.25</v>
@@ -16162,10 +16162,10 @@
         <v>3.75</v>
       </c>
       <c r="N130" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="O130" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="P130" t="n">
         <v>1.36</v>
@@ -16189,7 +16189,7 @@
         <v>8.5</v>
       </c>
       <c r="W130" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X130" t="n">
         <v>13</v>
@@ -16210,13 +16210,13 @@
         <v>51</v>
       </c>
       <c r="AD130" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE130" t="n">
         <v>15</v>
       </c>
       <c r="AF130" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG130" t="n">
         <v>17</v>
@@ -16272,10 +16272,10 @@
         <v>4</v>
       </c>
       <c r="J131" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K131" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L131" t="n">
         <v>1.36</v>
@@ -16284,10 +16284,10 @@
         <v>3</v>
       </c>
       <c r="N131" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="O131" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="P131" t="n">
         <v>1.5</v>
@@ -16394,22 +16394,22 @@
         <v>8.5</v>
       </c>
       <c r="J132" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K132" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="L132" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M132" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N132" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="O132" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="P132" t="n">
         <v>1.4</v>
@@ -16507,19 +16507,19 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="H133" t="n">
         <v>3</v>
       </c>
       <c r="I133" t="n">
-        <v>2.63</v>
+        <v>2.4</v>
       </c>
       <c r="J133" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K133" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="L133" t="n">
         <v>1.4</v>
@@ -16546,25 +16546,25 @@
         <v>1.8</v>
       </c>
       <c r="T133" t="n">
+        <v>8</v>
+      </c>
+      <c r="U133" t="n">
+        <v>13</v>
+      </c>
+      <c r="V133" t="n">
+        <v>12</v>
+      </c>
+      <c r="W133" t="n">
+        <v>29</v>
+      </c>
+      <c r="X133" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y133" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z133" t="n">
         <v>7.5</v>
-      </c>
-      <c r="U133" t="n">
-        <v>12</v>
-      </c>
-      <c r="V133" t="n">
-        <v>11</v>
-      </c>
-      <c r="W133" t="n">
-        <v>26</v>
-      </c>
-      <c r="X133" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y133" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z133" t="n">
-        <v>8</v>
       </c>
       <c r="AA133" t="n">
         <v>6</v>
@@ -16579,22 +16579,22 @@
         <v>800</v>
       </c>
       <c r="AE133" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF133" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AG133" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH133" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI133" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ133" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="134">
@@ -16629,19 +16629,19 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="H134" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I134" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J134" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K134" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="L134" t="n">
         <v>1.3</v>
@@ -16650,10 +16650,10 @@
         <v>3.4</v>
       </c>
       <c r="N134" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O134" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="P134" t="n">
         <v>1.44</v>
@@ -16692,7 +16692,7 @@
         <v>7</v>
       </c>
       <c r="AB134" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC134" t="n">
         <v>51</v>
@@ -16707,13 +16707,13 @@
         <v>29</v>
       </c>
       <c r="AG134" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH134" t="n">
+        <v>67</v>
+      </c>
+      <c r="AI134" t="n">
         <v>51</v>
-      </c>
-      <c r="AI134" t="n">
-        <v>41</v>
       </c>
       <c r="AJ134" t="n">
         <v>51</v>
@@ -16751,13 +16751,13 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I135" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="J135" t="n">
         <v>1.08</v>
@@ -16766,10 +16766,10 @@
         <v>7</v>
       </c>
       <c r="L135" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M135" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N135" t="n">
         <v>2.35</v>
@@ -16778,10 +16778,10 @@
         <v>1.57</v>
       </c>
       <c r="P135" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q135" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R135" t="n">
         <v>2</v>
@@ -16790,7 +16790,7 @@
         <v>1.73</v>
       </c>
       <c r="T135" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U135" t="n">
         <v>15</v>
@@ -16808,7 +16808,7 @@
         <v>41</v>
       </c>
       <c r="Z135" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA135" t="n">
         <v>6</v>
@@ -16817,7 +16817,7 @@
         <v>17</v>
       </c>
       <c r="AC135" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD135" t="n">
         <v>900</v>
@@ -16838,7 +16838,7 @@
         <v>21</v>
       </c>
       <c r="AJ135" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="136">
@@ -16882,10 +16882,10 @@
         <v>4.75</v>
       </c>
       <c r="J136" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K136" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L136" t="n">
         <v>1.36</v>
@@ -16995,37 +16995,37 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="H137" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="I137" t="n">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="J137" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K137" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L137" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M137" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="N137" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="O137" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P137" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q137" t="n">
         <v>2.5</v>
-      </c>
-      <c r="O137" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P137" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Q137" t="n">
-        <v>2.25</v>
       </c>
       <c r="R137" t="n">
         <v>2.1</v>
@@ -17037,52 +17037,52 @@
         <v>6</v>
       </c>
       <c r="U137" t="n">
+        <v>8</v>
+      </c>
+      <c r="V137" t="n">
         <v>9.5</v>
       </c>
-      <c r="V137" t="n">
-        <v>10</v>
-      </c>
       <c r="W137" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="X137" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y137" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z137" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA137" t="n">
         <v>6.5</v>
       </c>
-      <c r="AA137" t="n">
-        <v>6</v>
-      </c>
       <c r="AB137" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC137" t="n">
         <v>67</v>
       </c>
       <c r="AD137" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AE137" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AF137" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG137" t="n">
         <v>15</v>
       </c>
-      <c r="AG137" t="n">
-        <v>13</v>
-      </c>
       <c r="AH137" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI137" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ137" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="138">
@@ -17117,19 +17117,19 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H138" t="n">
         <v>3</v>
       </c>
       <c r="I138" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J138" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K138" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="L138" t="n">
         <v>1.25</v>
@@ -17150,10 +17150,10 @@
         <v>2.75</v>
       </c>
       <c r="R138" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S138" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T138" t="n">
         <v>8.5</v>
@@ -17165,7 +17165,7 @@
         <v>9.5</v>
       </c>
       <c r="W138" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X138" t="n">
         <v>17</v>
@@ -17195,7 +17195,7 @@
         <v>17</v>
       </c>
       <c r="AG138" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH138" t="n">
         <v>34</v>
@@ -17239,70 +17239,70 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H139" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="I139" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J139" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K139" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L139" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M139" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N139" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="O139" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="P139" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="Q139" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="R139" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="S139" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="T139" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U139" t="n">
         <v>8.5</v>
       </c>
       <c r="V139" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W139" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X139" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y139" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z139" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA139" t="n">
         <v>6</v>
       </c>
       <c r="AB139" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC139" t="n">
         <v>67</v>
@@ -17311,10 +17311,10 @@
         <v>900</v>
       </c>
       <c r="AE139" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF139" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG139" t="n">
         <v>15</v>
@@ -17323,10 +17323,10 @@
         <v>41</v>
       </c>
       <c r="AI139" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ139" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="140">
@@ -17361,13 +17361,13 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="H140" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="I140" t="n">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="J140" t="n">
         <v>1.08</v>
@@ -17382,37 +17382,37 @@
         <v>3</v>
       </c>
       <c r="N140" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="O140" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P140" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q140" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R140" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S140" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T140" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U140" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V140" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W140" t="n">
+        <v>12</v>
+      </c>
+      <c r="X140" t="n">
         <v>15</v>
-      </c>
-      <c r="X140" t="n">
-        <v>17</v>
       </c>
       <c r="Y140" t="n">
         <v>34</v>
@@ -17424,22 +17424,22 @@
         <v>6.5</v>
       </c>
       <c r="AB140" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC140" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD140" t="n">
         <v>900</v>
       </c>
       <c r="AE140" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AF140" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AG140" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH140" t="n">
         <v>51</v>
@@ -17448,7 +17448,7 @@
         <v>41</v>
       </c>
       <c r="AJ140" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="141">
@@ -17483,19 +17483,19 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H141" t="n">
         <v>2.7</v>
       </c>
       <c r="I141" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J141" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K141" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="L141" t="n">
         <v>1.44</v>
@@ -17525,16 +17525,16 @@
         <v>7</v>
       </c>
       <c r="U141" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V141" t="n">
         <v>11</v>
       </c>
       <c r="W141" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X141" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y141" t="n">
         <v>41</v>
@@ -17555,7 +17555,7 @@
         <v>900</v>
       </c>
       <c r="AE141" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF141" t="n">
         <v>13</v>
@@ -17849,13 +17849,13 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H144" t="n">
         <v>2.88</v>
       </c>
       <c r="I144" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="J144" t="n">
         <v>1.08</v>
@@ -17864,10 +17864,10 @@
         <v>7</v>
       </c>
       <c r="L144" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M144" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N144" t="n">
         <v>2.25</v>
@@ -17891,13 +17891,13 @@
         <v>6.5</v>
       </c>
       <c r="U144" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V144" t="n">
         <v>9.5</v>
       </c>
       <c r="W144" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X144" t="n">
         <v>19</v>
@@ -17921,7 +17921,7 @@
         <v>700</v>
       </c>
       <c r="AE144" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF144" t="n">
         <v>19</v>
@@ -17971,22 +17971,22 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="H145" t="n">
         <v>3.4</v>
       </c>
       <c r="I145" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="J145" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K145" t="n">
         <v>11</v>
       </c>
       <c r="L145" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M145" t="n">
         <v>3.5</v>
@@ -17998,34 +17998,34 @@
         <v>1.9</v>
       </c>
       <c r="P145" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q145" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R145" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="S145" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T145" t="n">
+        <v>8</v>
+      </c>
+      <c r="U145" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="V145" t="n">
         <v>8.5</v>
       </c>
-      <c r="U145" t="n">
-        <v>11</v>
-      </c>
-      <c r="V145" t="n">
-        <v>9</v>
-      </c>
       <c r="W145" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X145" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y145" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z145" t="n">
         <v>11</v>
@@ -18040,22 +18040,22 @@
         <v>41</v>
       </c>
       <c r="AD145" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE145" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF145" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG145" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH145" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI145" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ145" t="n">
         <v>34</v>
@@ -18099,25 +18099,25 @@
         <v>3.6</v>
       </c>
       <c r="I146" t="n">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="J146" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K146" t="n">
         <v>9</v>
       </c>
       <c r="L146" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="M146" t="n">
         <v>2.75</v>
       </c>
       <c r="N146" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O146" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P146" t="n">
         <v>1.5</v>
@@ -18215,37 +18215,37 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="H147" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I147" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J147" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K147" t="n">
+        <v>13</v>
+      </c>
+      <c r="L147" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M147" t="n">
+        <v>4</v>
+      </c>
+      <c r="N147" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="O147" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="P147" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q147" t="n">
         <v>3</v>
-      </c>
-      <c r="J147" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K147" t="n">
-        <v>15</v>
-      </c>
-      <c r="L147" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="M147" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="N147" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="O147" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="P147" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q147" t="n">
-        <v>3.25</v>
       </c>
       <c r="R147" t="n">
         <v>1.62</v>
@@ -18260,10 +18260,10 @@
         <v>12</v>
       </c>
       <c r="V147" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W147" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X147" t="n">
         <v>17</v>
@@ -18272,7 +18272,7 @@
         <v>23</v>
       </c>
       <c r="Z147" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA147" t="n">
         <v>7</v>
@@ -18287,16 +18287,16 @@
         <v>151</v>
       </c>
       <c r="AE147" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF147" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG147" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH147" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI147" t="n">
         <v>21</v>
@@ -18337,13 +18337,13 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="H148" t="n">
         <v>3.75</v>
       </c>
       <c r="I148" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="J148" t="n">
         <v>1.03</v>
@@ -18352,16 +18352,16 @@
         <v>9.5</v>
       </c>
       <c r="L148" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="M148" t="n">
-        <v>4.85</v>
+        <v>4.8</v>
       </c>
       <c r="N148" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="O148" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="P148" t="n">
         <v>1.25</v>
@@ -18373,10 +18373,10 @@
         <v>1.42</v>
       </c>
       <c r="S148" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="T148" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="U148" t="n">
         <v>15.5</v>
@@ -18385,13 +18385,13 @@
         <v>9.25</v>
       </c>
       <c r="W148" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="X148" t="n">
         <v>15.5</v>
       </c>
       <c r="Y148" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Z148" t="n">
         <v>9.5</v>
@@ -18462,10 +18462,10 @@
         <v>1.32</v>
       </c>
       <c r="H149" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="I149" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="J149" t="n">
         <v>1.02</v>
@@ -18474,28 +18474,28 @@
         <v>10</v>
       </c>
       <c r="L149" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="M149" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="N149" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="O149" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="P149" t="n">
         <v>1.23</v>
       </c>
       <c r="Q149" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="R149" t="n">
         <v>1.65</v>
       </c>
       <c r="S149" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="T149" t="n">
         <v>10.5</v>
@@ -18504,46 +18504,46 @@
         <v>8.25</v>
       </c>
       <c r="V149" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="W149" t="n">
         <v>9.5</v>
       </c>
       <c r="X149" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="Y149" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Z149" t="n">
         <v>10</v>
       </c>
       <c r="AA149" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AB149" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AC149" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AD149" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AE149" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AF149" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AG149" t="n">
         <v>24</v>
       </c>
       <c r="AH149" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AI149" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AJ149" t="n">
         <v>55</v>
@@ -18581,94 +18581,94 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="H150" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I150" t="n">
         <v>2.5</v>
       </c>
       <c r="J150" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K150" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="L150" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="M150" t="n">
-        <v>4.15</v>
+        <v>4.5</v>
       </c>
       <c r="N150" t="n">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="O150" t="n">
-        <v>2.22</v>
+        <v>2.37</v>
       </c>
       <c r="P150" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="Q150" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="R150" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="S150" t="n">
-        <v>2.4</v>
+        <v>2.57</v>
       </c>
       <c r="T150" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="U150" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="V150" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="W150" t="n">
         <v>29</v>
       </c>
       <c r="X150" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y150" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Z150" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AA150" t="n">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="AB150" t="n">
-        <v>11.5</v>
+        <v>10.75</v>
       </c>
       <c r="AC150" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AD150" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AE150" t="n">
-        <v>11.25</v>
+        <v>12.5</v>
       </c>
       <c r="AF150" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG150" t="n">
         <v>9.5</v>
       </c>
       <c r="AH150" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI150" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AJ150" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="151">
@@ -18703,94 +18703,94 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>2.95</v>
+        <v>2.87</v>
       </c>
       <c r="H151" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I151" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="J151" t="n">
         <v>1.04</v>
       </c>
       <c r="K151" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="L151" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="M151" t="n">
-        <v>4.35</v>
+        <v>4.1</v>
       </c>
       <c r="N151" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="O151" t="n">
-        <v>2.32</v>
+        <v>2.2</v>
       </c>
       <c r="P151" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="Q151" t="n">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="R151" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="S151" t="n">
-        <v>2.72</v>
+        <v>2.62</v>
       </c>
       <c r="T151" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="U151" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="V151" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="W151" t="n">
         <v>40</v>
       </c>
       <c r="X151" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y151" t="n">
         <v>21</v>
       </c>
       <c r="Z151" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AA151" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="AB151" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AC151" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AD151" t="n">
         <v>150</v>
       </c>
       <c r="AE151" t="n">
-        <v>12.5</v>
+        <v>11.25</v>
       </c>
       <c r="AF151" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AG151" t="n">
         <v>9</v>
       </c>
       <c r="AH151" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AI151" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AJ151" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="152">
@@ -18825,13 +18825,13 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="H152" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I152" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J152" t="n">
         <v>1.03</v>
@@ -18840,28 +18840,28 @@
         <v>15</v>
       </c>
       <c r="L152" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M152" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N152" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="O152" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="P152" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q152" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R152" t="n">
         <v>1.67</v>
       </c>
-      <c r="O152" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="P152" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q152" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R152" t="n">
-        <v>1.73</v>
-      </c>
       <c r="S152" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T152" t="n">
         <v>8.5</v>
@@ -18873,16 +18873,16 @@
         <v>8.5</v>
       </c>
       <c r="W152" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X152" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y152" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z152" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA152" t="n">
         <v>8</v>
@@ -18894,22 +18894,22 @@
         <v>41</v>
       </c>
       <c r="AD152" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE152" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF152" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG152" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH152" t="n">
         <v>51</v>
       </c>
       <c r="AI152" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ152" t="n">
         <v>41</v>
@@ -18956,19 +18956,19 @@
         <v>3.2</v>
       </c>
       <c r="J153" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K153" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L153" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M153" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N153" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O153" t="n">
         <v>2</v>
@@ -18980,10 +18980,10 @@
         <v>3</v>
       </c>
       <c r="R153" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S153" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T153" t="n">
         <v>9</v>
@@ -18995,7 +18995,7 @@
         <v>9</v>
       </c>
       <c r="W153" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X153" t="n">
         <v>17</v>
@@ -19019,10 +19019,10 @@
         <v>151</v>
       </c>
       <c r="AE153" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF153" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG153" t="n">
         <v>12</v>
@@ -19031,7 +19031,7 @@
         <v>34</v>
       </c>
       <c r="AI153" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ153" t="n">
         <v>29</v>
@@ -19069,19 +19069,19 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="H154" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I154" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J154" t="n">
         <v>1.01</v>
       </c>
       <c r="K154" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L154" t="n">
         <v>1.1</v>
@@ -19102,46 +19102,46 @@
         <v>4.33</v>
       </c>
       <c r="R154" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="S154" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="T154" t="n">
+        <v>11</v>
+      </c>
+      <c r="U154" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="V154" t="n">
         <v>10</v>
       </c>
-      <c r="U154" t="n">
-        <v>7</v>
-      </c>
-      <c r="V154" t="n">
-        <v>11</v>
-      </c>
       <c r="W154" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X154" t="n">
         <v>11</v>
       </c>
       <c r="Y154" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z154" t="n">
         <v>23</v>
       </c>
       <c r="AA154" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB154" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC154" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD154" t="n">
+        <v>301</v>
+      </c>
+      <c r="AE154" t="n">
         <v>34</v>
-      </c>
-      <c r="AC154" t="n">
-        <v>81</v>
-      </c>
-      <c r="AD154" t="n">
-        <v>351</v>
-      </c>
-      <c r="AE154" t="n">
-        <v>29</v>
       </c>
       <c r="AF154" t="n">
         <v>51</v>
@@ -19153,7 +19153,7 @@
         <v>151</v>
       </c>
       <c r="AI154" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AJ154" t="n">
         <v>51</v>
@@ -19191,84 +19191,84 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="H155" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="I155" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="M155" t="n">
-        <v>2.82</v>
+        <v>2.95</v>
       </c>
       <c r="N155" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="O155" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="P155" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="Q155" t="n">
-        <v>2.45</v>
+        <v>2.52</v>
       </c>
       <c r="R155" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="S155" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T155" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="U155" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="V155" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="W155" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="X155" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y155" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z155" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AA155" t="n">
         <v>6.7</v>
-      </c>
-      <c r="U155" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="V155" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="W155" t="n">
-        <v>17</v>
-      </c>
-      <c r="X155" t="n">
-        <v>16</v>
-      </c>
-      <c r="Y155" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z155" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AA155" t="n">
-        <v>6.4</v>
       </c>
       <c r="AB155" t="n">
         <v>15.5</v>
       </c>
       <c r="AC155" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AD155" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AE155" t="n">
-        <v>9.75</v>
+        <v>10.75</v>
       </c>
       <c r="AF155" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AG155" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH155" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AI155" t="n">
         <v>37</v>
@@ -19309,13 +19309,13 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>4.45</v>
+        <v>4.7</v>
       </c>
       <c r="H156" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I156" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
@@ -19338,37 +19338,37 @@
         <v>2.25</v>
       </c>
       <c r="R156" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="S156" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="T156" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="U156" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="V156" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="W156" t="n">
+        <v>90</v>
+      </c>
+      <c r="X156" t="n">
+        <v>60</v>
+      </c>
+      <c r="Y156" t="n">
         <v>80</v>
-      </c>
-      <c r="X156" t="n">
-        <v>55</v>
-      </c>
-      <c r="Y156" t="n">
-        <v>75</v>
       </c>
       <c r="Z156" t="n">
         <v>7.3</v>
       </c>
       <c r="AA156" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AB156" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AC156" t="n">
         <v>150</v>
@@ -19377,19 +19377,19 @@
         <v>900</v>
       </c>
       <c r="AE156" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AF156" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AG156" t="n">
         <v>9</v>
       </c>
       <c r="AH156" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AI156" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AJ156" t="n">
         <v>40</v>
@@ -19427,69 +19427,69 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="H157" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I157" t="n">
-        <v>4.6</v>
+        <v>4.85</v>
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="M157" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="N157" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="O157" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P157" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Q157" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="R157" t="n">
         <v>2.02</v>
       </c>
-      <c r="O157" t="n">
+      <c r="S157" t="n">
         <v>1.62</v>
       </c>
-      <c r="P157" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q157" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R157" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S157" t="n">
-        <v>1.65</v>
-      </c>
       <c r="T157" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="U157" t="n">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="V157" t="n">
         <v>8.5</v>
       </c>
       <c r="W157" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="X157" t="n">
         <v>15</v>
       </c>
       <c r="Y157" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Z157" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AA157" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AB157" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AC157" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AD157" t="n">
         <v>1000</v>
@@ -19498,19 +19498,19 @@
         <v>10.75</v>
       </c>
       <c r="AF157" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG157" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AH157" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI157" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ157" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="158">
